--- a/ALIMENTATION/DartiesMatriceSourceCible2.xlsx
+++ b/ALIMENTATION/DartiesMatriceSourceCible2.xlsx
@@ -7,17 +7,17 @@
     <workbookView xWindow="855" yWindow="-75" windowWidth="15600" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Initialisation" sheetId="1" r:id="rId1"/>
+    <sheet name="Referentiel" sheetId="1" r:id="rId1"/>
     <sheet name="Magnetoscope" sheetId="2" r:id="rId2"/>
     <sheet name="Four" sheetId="6" r:id="rId3"/>
     <sheet name="Hifi" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="114210" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="255">
   <si>
     <t>Le continent n'existe pas.</t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t>Solution</t>
-  </si>
-  <si>
-    <t>Initialisation</t>
   </si>
   <si>
     <t>CONTINENT.NOMCONTINENT</t>
@@ -813,13 +810,13 @@
     <t>EIPS002</t>
   </si>
   <si>
-    <t>EICS001</t>
-  </si>
-  <si>
     <t>Si Ajout : Le magasin est inséré</t>
   </si>
   <si>
     <t>MAGASIN.IDENSEIGNEMAGASIN, MAGASIN.IDVILLEMAGASIN</t>
+  </si>
+  <si>
+    <t>Referentiel</t>
   </si>
 </sst>
 </file>
@@ -1201,6 +1198,98 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1209,98 +1298,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1643,10 +1640,10 @@
   <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="12.75"/>
@@ -1663,7 +1660,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="23.25">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1683,7 +1680,7 @@
     <row r="2" spans="1:23">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="4"/>
       <c r="F2" s="4"/>
@@ -1706,12 +1703,12 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="3"/>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="88"/>
+      <c r="C3" s="81"/>
       <c r="F3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1768,7 +1765,7 @@
         <v>77</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>78</v>
@@ -1780,7 +1777,7 @@
         <v>63</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1802,19 +1799,17 @@
         <v>42</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>253</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>2</v>
@@ -1823,7 +1818,7 @@
         <v>70</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -1841,26 +1836,26 @@
       <c r="W6" s="10"/>
     </row>
     <row r="7" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="66" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="69" t="s">
         <v>71</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -1878,18 +1873,18 @@
       <c r="W7" s="10"/>
     </row>
     <row r="8" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A8" s="70"/>
-      <c r="B8" s="89" t="s">
-        <v>86</v>
+      <c r="A8" s="67"/>
+      <c r="B8" s="69" t="s">
+        <v>85</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>0</v>
@@ -1897,7 +1892,7 @@
       <c r="G8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="91"/>
+      <c r="H8" s="82"/>
       <c r="I8" s="14"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -1915,8 +1910,8 @@
       <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" s="15" customFormat="1">
-      <c r="A9" s="71"/>
-      <c r="B9" s="90"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="14" t="s">
         <v>7</v>
       </c>
@@ -1924,15 +1919,15 @@
         <v>8</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="90"/>
+      <c r="H9" s="70"/>
       <c r="I9" s="14"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -1950,14 +1945,14 @@
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="63" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>49</v>
@@ -1965,7 +1960,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="92" t="s">
+      <c r="H10" s="83" t="s">
         <v>73</v>
       </c>
       <c r="I10" s="12" t="s">
@@ -1987,18 +1982,18 @@
       <c r="W10" s="16"/>
     </row>
     <row r="11" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A11" s="96"/>
-      <c r="B11" s="80" t="s">
-        <v>86</v>
+      <c r="A11" s="64"/>
+      <c r="B11" s="71" t="s">
+        <v>85</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>3</v>
@@ -2006,7 +2001,7 @@
       <c r="G11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="93"/>
+      <c r="H11" s="84"/>
       <c r="I11" s="12"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -2024,8 +2019,8 @@
       <c r="W11" s="10"/>
     </row>
     <row r="12" spans="1:23" s="15" customFormat="1" ht="38.25">
-      <c r="A12" s="97"/>
-      <c r="B12" s="81"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="12" t="s">
         <v>9</v>
       </c>
@@ -2033,7 +2028,7 @@
         <v>46</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>10</v>
@@ -2041,7 +2036,7 @@
       <c r="G12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="94"/>
+      <c r="H12" s="85"/>
       <c r="I12" s="12"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -2059,14 +2054,14 @@
       <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="66" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -2074,7 +2069,7 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="89" t="s">
+      <c r="H13" s="69" t="s">
         <v>72</v>
       </c>
       <c r="I13" s="14" t="s">
@@ -2096,9 +2091,9 @@
       <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A14" s="70"/>
-      <c r="B14" s="89" t="s">
-        <v>86</v>
+      <c r="A14" s="67"/>
+      <c r="B14" s="69" t="s">
+        <v>85</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>20</v>
@@ -2107,7 +2102,7 @@
         <v>47</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>21</v>
@@ -2115,7 +2110,7 @@
       <c r="G14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="91"/>
+      <c r="H14" s="82"/>
       <c r="I14" s="14"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -2133,8 +2128,8 @@
       <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:23" s="15" customFormat="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="90"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="14" t="s">
         <v>19</v>
       </c>
@@ -2142,7 +2137,7 @@
         <v>48</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>13</v>
@@ -2150,7 +2145,7 @@
       <c r="G15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="90"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="14"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -2168,11 +2163,11 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A16" s="72" t="s">
-        <v>241</v>
+      <c r="A16" s="79" t="s">
+        <v>240</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>16</v>
@@ -2183,8 +2178,8 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="80" t="s">
-        <v>94</v>
+      <c r="H16" s="71" t="s">
+        <v>93</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>24</v>
@@ -2205,9 +2200,9 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="1:23" s="15" customFormat="1">
-      <c r="A17" s="84"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>18</v>
@@ -2216,7 +2211,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>22</v>
@@ -2224,7 +2219,7 @@
       <c r="G17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="81"/>
+      <c r="H17" s="72"/>
       <c r="I17" s="12"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -2242,18 +2237,18 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A18" s="75"/>
-      <c r="B18" s="85" t="s">
-        <v>86</v>
+      <c r="A18" s="88"/>
+      <c r="B18" s="76" t="s">
+        <v>85</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>62</v>
@@ -2261,8 +2256,8 @@
       <c r="G18" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="75" t="s">
-        <v>96</v>
+      <c r="H18" s="88" t="s">
+        <v>95</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="10"/>
@@ -2281,8 +2276,8 @@
       <c r="W18" s="10"/>
     </row>
     <row r="19" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A19" s="76"/>
-      <c r="B19" s="86"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="62" t="s">
         <v>59</v>
       </c>
@@ -2290,7 +2285,7 @@
         <v>60</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F19" s="62" t="s">
         <v>61</v>
@@ -2298,7 +2293,7 @@
       <c r="G19" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="76"/>
+      <c r="H19" s="89"/>
       <c r="I19" s="30"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -2316,24 +2311,24 @@
       <c r="W19" s="10"/>
     </row>
     <row r="20" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A20" s="77"/>
-      <c r="B20" s="87"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="D20" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="E20" s="62" t="s">
+      <c r="F20" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="F20" s="62" t="s">
-        <v>244</v>
-      </c>
       <c r="G20" s="62" t="s">
-        <v>254</v>
-      </c>
-      <c r="H20" s="77"/>
+        <v>252</v>
+      </c>
+      <c r="H20" s="90"/>
       <c r="I20" s="30"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -2351,28 +2346,28 @@
       <c r="W20" s="10"/>
     </row>
     <row r="21" spans="1:23" s="24" customFormat="1" ht="25.5">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="79" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="95" t="s">
         <v>74</v>
       </c>
       <c r="I21" s="12"/>
@@ -2392,9 +2387,9 @@
       <c r="W21" s="20"/>
     </row>
     <row r="22" spans="1:23" s="15" customFormat="1">
-      <c r="A22" s="73"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>51</v>
@@ -2405,7 +2400,7 @@
       <c r="E22" s="19"/>
       <c r="F22" s="12"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="64"/>
+      <c r="H22" s="96"/>
       <c r="I22" s="12"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -2423,9 +2418,9 @@
       <c r="W22" s="10"/>
     </row>
     <row r="23" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A23" s="74"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>31</v>
@@ -2434,15 +2429,15 @@
         <v>34</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="65"/>
+        <v>122</v>
+      </c>
+      <c r="H23" s="97"/>
       <c r="I23" s="12"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -2460,29 +2455,29 @@
       <c r="W23" s="10"/>
     </row>
     <row r="24" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="66" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G24" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="66" t="s">
-        <v>169</v>
+      <c r="H24" s="73" t="s">
+        <v>168</v>
       </c>
       <c r="I24" s="59"/>
       <c r="J24" s="10"/>
@@ -2501,9 +2496,9 @@
       <c r="W24" s="10"/>
     </row>
     <row r="25" spans="1:23" s="15" customFormat="1">
-      <c r="A25" s="70"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>51</v>
@@ -2514,7 +2509,7 @@
       <c r="E25" s="14"/>
       <c r="F25" s="21"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="67"/>
+      <c r="H25" s="74"/>
       <c r="I25" s="21"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -2532,26 +2527,26 @@
       <c r="W25" s="10"/>
     </row>
     <row r="26" spans="1:23" s="15" customFormat="1">
-      <c r="A26" s="71"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>33</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="68"/>
+      <c r="H26" s="75"/>
       <c r="I26" s="14"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -2569,29 +2564,29 @@
       <c r="W26" s="10"/>
     </row>
     <row r="27" spans="1:23" s="24" customFormat="1" ht="25.5">
-      <c r="A27" s="72" t="s">
-        <v>124</v>
+      <c r="A27" s="79" t="s">
+        <v>123</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="G27" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="63" t="s">
-        <v>170</v>
+      <c r="H27" s="95" t="s">
+        <v>169</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="20"/>
@@ -2610,110 +2605,110 @@
       <c r="W27" s="20"/>
     </row>
     <row r="28" spans="1:23" s="15" customFormat="1">
-      <c r="A28" s="73"/>
+      <c r="A28" s="87"/>
       <c r="B28" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="64"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:23" s="15" customFormat="1">
-      <c r="A29" s="74"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D29" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="19" t="s">
+      <c r="H29" s="97"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:23" s="15" customFormat="1" ht="25.5">
+      <c r="A30" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="H29" s="65"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A30" s="69" t="s">
-        <v>128</v>
-      </c>
       <c r="B30" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="G30" s="23" t="s">
         <v>130</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>131</v>
       </c>
       <c r="H30" s="61"/>
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:23" s="24" customFormat="1">
-      <c r="A31" s="70"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="21"/>
       <c r="G31" s="23"/>
-      <c r="H31" s="82" t="s">
-        <v>171</v>
+      <c r="H31" s="93" t="s">
+        <v>170</v>
       </c>
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:23" s="15" customFormat="1">
-      <c r="A32" s="71"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D32" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="H32" s="83"/>
+      <c r="H32" s="94"/>
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" s="15" customFormat="1" ht="25.5">
@@ -2721,14 +2716,14 @@
         <v>36</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>38</v>
@@ -2740,170 +2735,170 @@
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" s="15" customFormat="1" ht="25.5">
-      <c r="A34" s="69" t="s">
-        <v>129</v>
+      <c r="A34" s="66" t="s">
+        <v>128</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="G34" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="G34" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="H34" s="66" t="s">
-        <v>172</v>
+      <c r="H34" s="73" t="s">
+        <v>171</v>
       </c>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" s="15" customFormat="1">
-      <c r="A35" s="70"/>
+      <c r="A35" s="67"/>
       <c r="B35" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
-      <c r="H35" s="67"/>
+      <c r="H35" s="74"/>
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9" s="15" customFormat="1">
-      <c r="A36" s="71"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D36" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="22" t="s">
+      <c r="H36" s="75"/>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="1:9" s="24" customFormat="1" ht="25.5">
+      <c r="A37" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="H36" s="68"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" s="24" customFormat="1" ht="25.5">
-      <c r="A37" s="72" t="s">
+      <c r="B37" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="E37" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="G37" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="H37" s="63" t="s">
-        <v>173</v>
+      <c r="H37" s="95" t="s">
+        <v>172</v>
       </c>
       <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9" s="15" customFormat="1">
-      <c r="A38" s="73"/>
+      <c r="A38" s="87"/>
       <c r="B38" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="64"/>
+      <c r="H38" s="96"/>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" s="15" customFormat="1">
-      <c r="A39" s="74"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="19" t="s">
+      <c r="H39" s="97"/>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:9" s="15" customFormat="1" ht="25.5">
+      <c r="A40" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="65"/>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9" s="15" customFormat="1" ht="25.5">
-      <c r="A40" s="69" t="s">
-        <v>137</v>
-      </c>
       <c r="B40" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F40" s="59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G40" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="H40" s="66" t="s">
-        <v>93</v>
+      <c r="H40" s="73" t="s">
+        <v>92</v>
       </c>
       <c r="I40" s="59"/>
     </row>
     <row r="41" spans="1:9" s="26" customFormat="1">
-      <c r="A41" s="70"/>
+      <c r="A41" s="67"/>
       <c r="B41" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>51</v>
@@ -2914,30 +2909,30 @@
       <c r="E41" s="22"/>
       <c r="F41" s="21"/>
       <c r="G41" s="23"/>
-      <c r="H41" s="67"/>
+      <c r="H41" s="74"/>
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9" s="15" customFormat="1">
-      <c r="A42" s="71"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G42" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="68"/>
+      <c r="H42" s="75"/>
       <c r="I42" s="14"/>
     </row>
     <row r="43" spans="1:9" s="27" customFormat="1" ht="38.25">
@@ -2945,10 +2940,10 @@
         <v>25</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>26</v>
@@ -2957,18 +2952,18 @@
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="27" customFormat="1">
-      <c r="A44" s="69" t="s">
+      <c r="A44" s="66" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>51</v>
@@ -2979,13 +2974,13 @@
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
       <c r="G44" s="29"/>
-      <c r="H44" s="78" t="s">
-        <v>97</v>
+      <c r="H44" s="91" t="s">
+        <v>96</v>
       </c>
       <c r="I44" s="29"/>
     </row>
     <row r="45" spans="1:9" s="27" customFormat="1">
-      <c r="A45" s="84"/>
+      <c r="A45" s="86"/>
       <c r="B45" s="14" t="s">
         <v>28</v>
       </c>
@@ -2996,7 +2991,7 @@
         <v>52</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F45" s="29" t="s">
         <v>65</v>
@@ -3004,15 +2999,15 @@
       <c r="G45" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="79"/>
+      <c r="H45" s="92"/>
       <c r="I45" s="29"/>
     </row>
     <row r="46" spans="1:9" s="15" customFormat="1">
-      <c r="A46" s="72" t="s">
+      <c r="A46" s="79" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>51</v>
@@ -3023,13 +3018,13 @@
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
-      <c r="H46" s="80" t="s">
-        <v>98</v>
+      <c r="H46" s="71" t="s">
+        <v>97</v>
       </c>
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" s="15" customFormat="1" ht="25.5">
-      <c r="A47" s="74"/>
+      <c r="A47" s="80"/>
       <c r="B47" s="12" t="s">
         <v>28</v>
       </c>
@@ -3040,7 +3035,7 @@
         <v>54</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>68</v>
@@ -3048,7 +3043,7 @@
       <c r="G47" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H47" s="81"/>
+      <c r="H47" s="72"/>
       <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9">
@@ -3075,12 +3070,7 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B8:B9"/>
@@ -3097,6 +3087,12 @@
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="H37:H39"/>
     <mergeCell ref="H21:H23"/>
@@ -3107,7 +3103,6 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3139,7 +3134,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="46.5">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -3180,10 +3175,10 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="3"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
       <c r="F3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -3240,7 +3235,7 @@
         <v>77</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>78</v>
@@ -3252,7 +3247,7 @@
         <v>63</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -3271,28 +3266,28 @@
     </row>
     <row r="6" spans="1:23" s="10" customFormat="1" ht="25.5">
       <c r="A6" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="21" t="s">
+      <c r="G6" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" s="38" t="s">
         <v>113</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>114</v>
       </c>
       <c r="I6" s="21"/>
     </row>
@@ -3301,25 +3296,25 @@
         <v>15</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="G7" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" s="34" t="s">
         <v>110</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>111</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="10"/>
@@ -3339,21 +3334,21 @@
     </row>
     <row r="8" spans="1:23" s="10" customFormat="1" ht="63.75">
       <c r="A8" s="54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="21"/>
@@ -3361,25 +3356,25 @@
     <row r="9" spans="1:23" s="15" customFormat="1" ht="38.25">
       <c r="A9" s="40"/>
       <c r="B9" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="G9" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" s="40" t="s">
         <v>115</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>116</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="10"/>
@@ -3399,28 +3394,28 @@
     </row>
     <row r="10" spans="1:23" s="15" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="98" t="s">
         <v>117</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="98" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="98" t="s">
-        <v>118</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="10"/>
@@ -3441,22 +3436,22 @@
     <row r="11" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
       <c r="A11" s="99"/>
       <c r="B11" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="99"/>
       <c r="E11" s="51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G11" s="99"/>
       <c r="H11" s="99"/>
       <c r="I11" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -3476,17 +3471,17 @@
     <row r="12" spans="1:23" s="15" customFormat="1">
       <c r="A12" s="100"/>
       <c r="B12" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D12" s="100"/>
       <c r="E12" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G12" s="100"/>
       <c r="H12" s="100"/>
@@ -3507,29 +3502,29 @@
       <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A13" s="95" t="s">
-        <v>197</v>
+      <c r="A13" s="63" t="s">
+        <v>196</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="G13" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="95" t="s">
+      <c r="H13" s="63" t="s">
         <v>120</v>
-      </c>
-      <c r="H13" s="95" t="s">
-        <v>121</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="10"/>
@@ -3548,24 +3543,24 @@
       <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A14" s="96"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" s="96"/>
+        <v>167</v>
+      </c>
+      <c r="D14" s="64"/>
       <c r="E14" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
+        <v>106</v>
+      </c>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
       <c r="I14" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -3575,22 +3570,22 @@
       <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:23" s="15" customFormat="1">
-      <c r="A15" s="97"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="97"/>
+        <v>165</v>
+      </c>
+      <c r="D15" s="65"/>
       <c r="E15" s="48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
+        <v>202</v>
+      </c>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
       <c r="I15" s="12"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -3601,28 +3596,28 @@
     </row>
     <row r="16" spans="1:23" s="15" customFormat="1" ht="25.5">
       <c r="A16" s="98" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>147</v>
-      </c>
       <c r="G16" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="98" t="s">
         <v>156</v>
-      </c>
-      <c r="H16" s="98" t="s">
-        <v>157</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="10"/>
@@ -3635,10 +3630,10 @@
     <row r="17" spans="1:15" s="15" customFormat="1">
       <c r="A17" s="99"/>
       <c r="B17" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" s="99"/>
       <c r="E17" s="52"/>
@@ -3656,24 +3651,24 @@
     <row r="18" spans="1:15" s="15" customFormat="1" ht="25.5">
       <c r="A18" s="99"/>
       <c r="B18" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D18" s="99"/>
       <c r="E18" s="57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H18" s="99"/>
       <c r="I18" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -3683,29 +3678,29 @@
       <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A19" s="95" t="s">
-        <v>200</v>
+      <c r="A19" s="63" t="s">
+        <v>199</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="95" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="G19" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" s="72" t="s">
-        <v>108</v>
+        <v>153</v>
+      </c>
+      <c r="H19" s="79" t="s">
+        <v>107</v>
       </c>
       <c r="I19" s="41"/>
       <c r="J19" s="10"/>
@@ -3716,18 +3711,18 @@
       <c r="O19" s="10"/>
     </row>
     <row r="20" spans="1:15" s="15" customFormat="1">
-      <c r="A20" s="96"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D20" s="96"/>
+        <v>212</v>
+      </c>
+      <c r="D20" s="64"/>
       <c r="E20" s="49"/>
       <c r="F20" s="12"/>
       <c r="G20" s="43"/>
-      <c r="H20" s="73"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="41"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -3737,26 +3732,26 @@
       <c r="O20" s="10"/>
     </row>
     <row r="21" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A21" s="96"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="96"/>
+        <v>164</v>
+      </c>
+      <c r="D21" s="64"/>
       <c r="E21" s="55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" s="73"/>
+        <v>153</v>
+      </c>
+      <c r="H21" s="87"/>
       <c r="I21" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -3767,28 +3762,28 @@
     </row>
     <row r="22" spans="1:15" s="15" customFormat="1" ht="25.5">
       <c r="A22" s="98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="98" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>147</v>
-      </c>
       <c r="G22" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H22" s="98" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="10"/>
@@ -3801,10 +3796,10 @@
     <row r="23" spans="1:15" s="15" customFormat="1">
       <c r="A23" s="99"/>
       <c r="B23" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="99"/>
       <c r="E23" s="52"/>
@@ -3822,20 +3817,20 @@
     <row r="24" spans="1:15" s="15" customFormat="1" ht="27.95" customHeight="1">
       <c r="A24" s="99"/>
       <c r="B24" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" s="99"/>
       <c r="E24" s="57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="75" t="s">
-        <v>158</v>
+        <v>140</v>
+      </c>
+      <c r="G24" s="88" t="s">
+        <v>157</v>
       </c>
       <c r="H24" s="99"/>
       <c r="I24" s="44"/>
@@ -3849,22 +3844,22 @@
     <row r="25" spans="1:15" s="24" customFormat="1">
       <c r="A25" s="99"/>
       <c r="B25" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D25" s="99"/>
       <c r="E25" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="77"/>
+        <v>106</v>
+      </c>
+      <c r="G25" s="90"/>
       <c r="H25" s="99"/>
       <c r="I25" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
@@ -3874,85 +3869,85 @@
       <c r="O25" s="20"/>
     </row>
     <row r="26" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A26" s="95" t="s">
-        <v>201</v>
+      <c r="A26" s="63" t="s">
+        <v>200</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="G26" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="H26" s="72" t="s">
         <v>159</v>
       </c>
+      <c r="H26" s="79" t="s">
+        <v>158</v>
+      </c>
       <c r="I26" s="44"/>
     </row>
     <row r="27" spans="1:15" s="24" customFormat="1">
-      <c r="A27" s="96"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="73"/>
+        <v>108</v>
+      </c>
+      <c r="D27" s="87"/>
       <c r="E27" s="53"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="73"/>
+      <c r="H27" s="87"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:15" s="15" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A28" s="96"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="87"/>
+      <c r="E28" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="87"/>
+      <c r="I28" s="41"/>
+    </row>
+    <row r="29" spans="1:15" s="15" customFormat="1">
+      <c r="A29" s="65"/>
+      <c r="B29" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="80"/>
+      <c r="E29" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="65"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="41" t="s">
         <v>143</v>
-      </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="G28" s="95" t="s">
-        <v>160</v>
-      </c>
-      <c r="H28" s="73"/>
-      <c r="I28" s="41"/>
-    </row>
-    <row r="29" spans="1:15" s="15" customFormat="1">
-      <c r="A29" s="97"/>
-      <c r="B29" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="97"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="41" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="24" customFormat="1"/>
@@ -3991,20 +3986,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="23">
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="H19:H21"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H13:H15"/>
     <mergeCell ref="G13:G15"/>
@@ -4014,6 +3995,20 @@
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="G10:G12"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="G24:G25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4042,7 +4037,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="23.25">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -4083,10 +4078,10 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="3"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
       <c r="F3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -4143,7 +4138,7 @@
         <v>77</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>78</v>
@@ -4155,7 +4150,7 @@
         <v>63</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -4174,28 +4169,28 @@
     </row>
     <row r="6" spans="1:23" s="9" customFormat="1" ht="25.5">
       <c r="A6" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="56" t="s">
-        <v>222</v>
-      </c>
-      <c r="F6" s="21" t="s">
+      <c r="G6" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" s="38" t="s">
         <v>113</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>114</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="8"/>
@@ -4218,25 +4213,25 @@
         <v>15</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="G7" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="34" t="s">
         <v>110</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>111</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="10"/>
@@ -4256,21 +4251,21 @@
     </row>
     <row r="8" spans="1:23" s="10" customFormat="1" ht="63.75">
       <c r="A8" s="54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="21"/>
@@ -4278,25 +4273,25 @@
     <row r="9" spans="1:23" s="15" customFormat="1" ht="38.25">
       <c r="A9" s="40"/>
       <c r="B9" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="G9" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" s="40" t="s">
         <v>115</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>116</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="10"/>
@@ -4316,28 +4311,28 @@
     </row>
     <row r="10" spans="1:23" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="98" t="s">
         <v>117</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="98" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="98" t="s">
-        <v>118</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="10"/>
@@ -4358,22 +4353,22 @@
     <row r="11" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
       <c r="A11" s="99"/>
       <c r="B11" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="99"/>
       <c r="E11" s="57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G11" s="99"/>
       <c r="H11" s="99"/>
       <c r="I11" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -4393,17 +4388,17 @@
     <row r="12" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
       <c r="A12" s="100"/>
       <c r="B12" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D12" s="100"/>
       <c r="E12" s="57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G12" s="100"/>
       <c r="H12" s="100"/>
@@ -4424,29 +4419,29 @@
       <c r="W12" s="16"/>
     </row>
     <row r="13" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A13" s="95" t="s">
-        <v>209</v>
+      <c r="A13" s="63" t="s">
+        <v>208</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="95" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="95" t="s">
+      <c r="H13" s="63" t="s">
         <v>120</v>
-      </c>
-      <c r="H13" s="95" t="s">
-        <v>121</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="16"/>
@@ -4465,24 +4460,24 @@
       <c r="W13" s="16"/>
     </row>
     <row r="14" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A14" s="96"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="96"/>
+        <v>164</v>
+      </c>
+      <c r="D14" s="64"/>
       <c r="E14" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
+        <v>106</v>
+      </c>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
       <c r="I14" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -4500,22 +4495,22 @@
       <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:23" s="15" customFormat="1">
-      <c r="A15" s="97"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" s="97"/>
+        <v>209</v>
+      </c>
+      <c r="D15" s="65"/>
       <c r="E15" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
+        <v>202</v>
+      </c>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
       <c r="I15" s="12"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -4526,28 +4521,28 @@
     </row>
     <row r="16" spans="1:23" s="15" customFormat="1" ht="25.5">
       <c r="A16" s="98" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>147</v>
-      </c>
       <c r="G16" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="98" t="s">
         <v>156</v>
-      </c>
-      <c r="H16" s="98" t="s">
-        <v>157</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="10"/>
@@ -4560,10 +4555,10 @@
     <row r="17" spans="1:15" s="15" customFormat="1">
       <c r="A17" s="99"/>
       <c r="B17" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" s="99"/>
       <c r="E17" s="57"/>
@@ -4581,24 +4576,24 @@
     <row r="18" spans="1:15" s="15" customFormat="1" ht="25.5">
       <c r="A18" s="99"/>
       <c r="B18" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D18" s="99"/>
       <c r="E18" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H18" s="99"/>
       <c r="I18" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -4608,29 +4603,29 @@
       <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A19" s="95" t="s">
-        <v>200</v>
+      <c r="A19" s="63" t="s">
+        <v>199</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="95" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="G19" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" s="72" t="s">
-        <v>108</v>
+        <v>153</v>
+      </c>
+      <c r="H19" s="79" t="s">
+        <v>107</v>
       </c>
       <c r="I19" s="41"/>
       <c r="J19" s="10"/>
@@ -4641,18 +4636,18 @@
       <c r="O19" s="10"/>
     </row>
     <row r="20" spans="1:15" s="15" customFormat="1">
-      <c r="A20" s="96"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D20" s="96"/>
+        <v>212</v>
+      </c>
+      <c r="D20" s="64"/>
       <c r="E20" s="55"/>
       <c r="F20" s="12"/>
       <c r="G20" s="43"/>
-      <c r="H20" s="73"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="41"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -4662,26 +4657,26 @@
       <c r="O20" s="10"/>
     </row>
     <row r="21" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A21" s="96"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D21" s="96"/>
+        <v>213</v>
+      </c>
+      <c r="D21" s="64"/>
       <c r="E21" s="49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" s="73"/>
+        <v>153</v>
+      </c>
+      <c r="H21" s="87"/>
       <c r="I21" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -4692,28 +4687,28 @@
     </row>
     <row r="22" spans="1:15" s="24" customFormat="1" ht="25.5">
       <c r="A22" s="98" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="98" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>147</v>
-      </c>
       <c r="G22" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H22" s="98" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="20"/>
@@ -4726,10 +4721,10 @@
     <row r="23" spans="1:15" s="15" customFormat="1">
       <c r="A23" s="99"/>
       <c r="B23" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="99"/>
       <c r="E23" s="57"/>
@@ -4747,20 +4742,20 @@
     <row r="24" spans="1:15" s="15" customFormat="1" ht="25.5">
       <c r="A24" s="99"/>
       <c r="B24" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" s="99"/>
       <c r="E24" s="57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="75" t="s">
-        <v>158</v>
+        <v>140</v>
+      </c>
+      <c r="G24" s="88" t="s">
+        <v>157</v>
       </c>
       <c r="H24" s="99"/>
       <c r="I24" s="44"/>
@@ -4774,22 +4769,22 @@
     <row r="25" spans="1:15" s="15" customFormat="1">
       <c r="A25" s="99"/>
       <c r="B25" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D25" s="99"/>
       <c r="E25" s="52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="77"/>
+        <v>106</v>
+      </c>
+      <c r="G25" s="90"/>
       <c r="H25" s="99"/>
       <c r="I25" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -4799,85 +4794,85 @@
       <c r="O25" s="10"/>
     </row>
     <row r="26" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A26" s="95" t="s">
-        <v>201</v>
+      <c r="A26" s="63" t="s">
+        <v>200</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="G26" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="H26" s="72" t="s">
         <v>159</v>
       </c>
+      <c r="H26" s="79" t="s">
+        <v>158</v>
+      </c>
       <c r="I26" s="41"/>
     </row>
     <row r="27" spans="1:15" s="15" customFormat="1">
-      <c r="A27" s="96"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="73"/>
+        <v>108</v>
+      </c>
+      <c r="D27" s="87"/>
       <c r="E27" s="53"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="73"/>
+      <c r="H27" s="87"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:15" s="24" customFormat="1" ht="25.5">
-      <c r="A28" s="96"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="87"/>
+      <c r="E28" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="87"/>
+      <c r="I28" s="41"/>
+    </row>
+    <row r="29" spans="1:15" s="15" customFormat="1">
+      <c r="A29" s="64"/>
+      <c r="B29" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="87"/>
+      <c r="E29" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="65"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="41" t="s">
         <v>143</v>
-      </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="G28" s="95" t="s">
-        <v>160</v>
-      </c>
-      <c r="H28" s="73"/>
-      <c r="I28" s="41"/>
-    </row>
-    <row r="29" spans="1:15" s="15" customFormat="1">
-      <c r="A29" s="96"/>
-      <c r="B29" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="97"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="41" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="15" customFormat="1"/>
@@ -4916,6 +4911,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="H19:H21"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="D26:D29"/>
     <mergeCell ref="H26:H29"/>
@@ -4924,21 +4934,6 @@
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -4968,7 +4963,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="23.25">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -5009,10 +5004,10 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="3"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
       <c r="F3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -5069,7 +5064,7 @@
         <v>77</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>78</v>
@@ -5081,7 +5076,7 @@
         <v>63</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -5100,28 +5095,28 @@
     </row>
     <row r="6" spans="1:23" s="9" customFormat="1" ht="25.5">
       <c r="A6" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="F6" s="21" t="s">
+      <c r="G6" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" s="38" t="s">
         <v>113</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>114</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="8"/>
@@ -5144,25 +5139,25 @@
         <v>15</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="G7" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="34" t="s">
         <v>110</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>111</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="10"/>
@@ -5182,21 +5177,21 @@
     </row>
     <row r="8" spans="1:23" s="10" customFormat="1" ht="63.75">
       <c r="A8" s="54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="21"/>
@@ -5204,25 +5199,25 @@
     <row r="9" spans="1:23" s="15" customFormat="1" ht="38.25">
       <c r="A9" s="40"/>
       <c r="B9" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="G9" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" s="40" t="s">
         <v>115</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>116</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="10"/>
@@ -5242,28 +5237,28 @@
     </row>
     <row r="10" spans="1:23" s="15" customFormat="1">
       <c r="A10" s="98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="98" t="s">
         <v>117</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="98" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="98" t="s">
-        <v>118</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="10"/>
@@ -5284,22 +5279,22 @@
     <row r="11" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
       <c r="A11" s="99"/>
       <c r="B11" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="99"/>
       <c r="E11" s="57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G11" s="99"/>
       <c r="H11" s="99"/>
       <c r="I11" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -5319,17 +5314,17 @@
     <row r="12" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
       <c r="A12" s="100"/>
       <c r="B12" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D12" s="100"/>
       <c r="E12" s="57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G12" s="100"/>
       <c r="H12" s="100"/>
@@ -5350,29 +5345,29 @@
       <c r="W12" s="16"/>
     </row>
     <row r="13" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A13" s="95" t="s">
-        <v>209</v>
+      <c r="A13" s="63" t="s">
+        <v>208</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="95" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="95" t="s">
+      <c r="H13" s="63" t="s">
         <v>120</v>
-      </c>
-      <c r="H13" s="95" t="s">
-        <v>121</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="16"/>
@@ -5391,24 +5386,24 @@
       <c r="W13" s="16"/>
     </row>
     <row r="14" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A14" s="96"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="96"/>
+        <v>164</v>
+      </c>
+      <c r="D14" s="64"/>
       <c r="E14" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
+        <v>106</v>
+      </c>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
       <c r="I14" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -5426,22 +5421,22 @@
       <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:23" s="15" customFormat="1">
-      <c r="A15" s="97"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" s="97"/>
+        <v>209</v>
+      </c>
+      <c r="D15" s="65"/>
       <c r="E15" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
+        <v>202</v>
+      </c>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
       <c r="I15" s="12"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -5452,28 +5447,28 @@
     </row>
     <row r="16" spans="1:23" s="15" customFormat="1" ht="25.5">
       <c r="A16" s="98" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>147</v>
-      </c>
       <c r="G16" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="98" t="s">
         <v>156</v>
-      </c>
-      <c r="H16" s="98" t="s">
-        <v>157</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="10"/>
@@ -5486,10 +5481,10 @@
     <row r="17" spans="1:15" s="15" customFormat="1">
       <c r="A17" s="99"/>
       <c r="B17" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" s="99"/>
       <c r="E17" s="57"/>
@@ -5507,24 +5502,24 @@
     <row r="18" spans="1:15" s="15" customFormat="1" ht="25.5">
       <c r="A18" s="99"/>
       <c r="B18" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D18" s="99"/>
       <c r="E18" s="52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H18" s="99"/>
       <c r="I18" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -5534,29 +5529,29 @@
       <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A19" s="95" t="s">
-        <v>200</v>
+      <c r="A19" s="63" t="s">
+        <v>199</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="95" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="G19" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" s="72" t="s">
-        <v>108</v>
+        <v>153</v>
+      </c>
+      <c r="H19" s="79" t="s">
+        <v>107</v>
       </c>
       <c r="I19" s="41"/>
       <c r="J19" s="10"/>
@@ -5567,18 +5562,18 @@
       <c r="O19" s="10"/>
     </row>
     <row r="20" spans="1:15" s="15" customFormat="1">
-      <c r="A20" s="96"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D20" s="96"/>
+        <v>212</v>
+      </c>
+      <c r="D20" s="64"/>
       <c r="E20" s="49"/>
       <c r="F20" s="12"/>
       <c r="G20" s="43"/>
-      <c r="H20" s="73"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="41"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -5588,26 +5583,26 @@
       <c r="O20" s="10"/>
     </row>
     <row r="21" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A21" s="96"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="96"/>
+        <v>164</v>
+      </c>
+      <c r="D21" s="64"/>
       <c r="E21" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" s="73"/>
+        <v>153</v>
+      </c>
+      <c r="H21" s="87"/>
       <c r="I21" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -5618,28 +5613,28 @@
     </row>
     <row r="22" spans="1:15" s="24" customFormat="1" ht="25.5">
       <c r="A22" s="98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="98" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>147</v>
-      </c>
       <c r="G22" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H22" s="98" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="20"/>
@@ -5652,10 +5647,10 @@
     <row r="23" spans="1:15" s="15" customFormat="1">
       <c r="A23" s="99"/>
       <c r="B23" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="99"/>
       <c r="E23" s="57"/>
@@ -5673,20 +5668,20 @@
     <row r="24" spans="1:15" s="15" customFormat="1" ht="25.5">
       <c r="A24" s="99"/>
       <c r="B24" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" s="99"/>
       <c r="E24" s="57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="75" t="s">
-        <v>158</v>
+        <v>140</v>
+      </c>
+      <c r="G24" s="88" t="s">
+        <v>157</v>
       </c>
       <c r="H24" s="99"/>
       <c r="I24" s="44"/>
@@ -5700,22 +5695,22 @@
     <row r="25" spans="1:15" s="15" customFormat="1">
       <c r="A25" s="99"/>
       <c r="B25" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D25" s="99"/>
       <c r="E25" s="52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="77"/>
+        <v>106</v>
+      </c>
+      <c r="G25" s="90"/>
       <c r="H25" s="99"/>
       <c r="I25" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -5725,85 +5720,85 @@
       <c r="O25" s="10"/>
     </row>
     <row r="26" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A26" s="95" t="s">
-        <v>177</v>
+      <c r="A26" s="63" t="s">
+        <v>176</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="G26" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="H26" s="72" t="s">
-        <v>159</v>
+        <v>148</v>
+      </c>
+      <c r="H26" s="79" t="s">
+        <v>158</v>
       </c>
       <c r="I26" s="41"/>
     </row>
     <row r="27" spans="1:15" s="15" customFormat="1">
-      <c r="A27" s="96"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="73"/>
+        <v>108</v>
+      </c>
+      <c r="D27" s="87"/>
       <c r="E27" s="11"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="73"/>
+      <c r="H27" s="87"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:15" s="24" customFormat="1" ht="25.5">
-      <c r="A28" s="96"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="87"/>
+      <c r="E28" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="87"/>
+      <c r="I28" s="41"/>
+    </row>
+    <row r="29" spans="1:15" s="15" customFormat="1">
+      <c r="A29" s="64"/>
+      <c r="B29" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="87"/>
+      <c r="E29" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="65"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="41" t="s">
         <v>143</v>
-      </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="G28" s="95" t="s">
-        <v>160</v>
-      </c>
-      <c r="H28" s="73"/>
-      <c r="I28" s="41"/>
-    </row>
-    <row r="29" spans="1:15" s="15" customFormat="1">
-      <c r="A29" s="96"/>
-      <c r="B29" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="97"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="41" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="15" customFormat="1"/>
@@ -5842,6 +5837,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="H19:H21"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="D26:D29"/>
     <mergeCell ref="H26:H29"/>
@@ -5850,21 +5860,6 @@
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="G13:G15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>

--- a/ALIMENTATION/DartiesMatriceSourceCible2.xlsx
+++ b/ALIMENTATION/DartiesMatriceSourceCible2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="-75" windowWidth="15600" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="860" yWindow="-80" windowWidth="24060" windowHeight="13860" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Referentiel" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,95 @@
     <sheet name="Hifi" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="248">
+  <si>
+    <t>VILLE.IDREGIONCOMMERCIALEVILLE</t>
+  </si>
+  <si>
+    <t>VILLE.NOMVILLE, VILLE.IDREGIONCOMMERCIALEVILLE</t>
+  </si>
+  <si>
+    <t>Cohérence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Le nombre doit être positif.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Le nombre est un entier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Le nombre est un entier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Le nombre est un entier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Le nombre est un entier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ville</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Création implicite de la région</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Création implicite du pays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Créatin implicite de l'enseigne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Si Ajout : Création implicite de la ville</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Code erreur du programme JAVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ce n'est pas un nombre / entier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ce n'est pas un nombre / entier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ce n'est pas un nombre </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ce n'est pas un nombre / entier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cohérence</t>
+  </si>
+  <si>
+    <t>Vérifier l'existence du fait pour ce mois</t>
+  </si>
+  <si>
+    <t>Le fait n'existe pas</t>
+  </si>
   <si>
     <t>Le continent n'existe pas.</t>
   </si>
@@ -31,9 +115,6 @@
     <t>Le pays n'existe pas.</t>
   </si>
   <si>
-    <t>L'insertion se fait avec le pays "France", id=1</t>
-  </si>
-  <si>
     <t>Récupération de REGION.IDREGION</t>
   </si>
   <si>
@@ -103,9 +184,6 @@
     <t>Envoi d'un mail informant le directeur informatique qu'une nouvelle devise a été insérée, mise en place de la récupération des données</t>
   </si>
   <si>
-    <t>Vérification des données</t>
-  </si>
-  <si>
     <t>La population ne semble pas plausible.</t>
   </si>
   <si>
@@ -160,10 +238,10 @@
     <t>REGIONCOMMERCIALE.NOMREGIONCOMMERCIALE, REGIONCOMMERCIALE.NOMPAYSREGIONCOMMERCIALE</t>
   </si>
   <si>
-    <t>VILLE.IDREGIONCOMMERCIALEVILLE</t>
-  </si>
-  <si>
-    <t>VILLE.NOMVILLE, VILLE.IDREGIONCOMMERCIALEVILLE</t>
+    <t>Vérification que le champ ne contient que des chiffres et ''.''ou '',''.</t>
+  </si>
+  <si>
+    <t>Ce n'est pas un nombre</t>
   </si>
   <si>
     <t>REGION.NOMREGIONCOMMERCIALE</t>
@@ -172,9 +250,6 @@
     <t>Publicité</t>
   </si>
   <si>
-    <t>Remplacement du "." par ",".</t>
-  </si>
-  <si>
     <t>MAGASIN.PUBLICITEMAGASIN</t>
   </si>
   <si>
@@ -193,9 +268,6 @@
     <t>MAGASIN.IDENSEIGNEMAGASIN</t>
   </si>
   <si>
-    <t>Le magasin n'est pas inséré.</t>
-  </si>
-  <si>
     <t>Le magasin a une ville qui est celle renseignée sur la même ligne.</t>
   </si>
   <si>
@@ -211,9 +283,6 @@
     <t>Cas de succès</t>
   </si>
   <si>
-    <t>Le nombre doit être positif.</t>
-  </si>
-  <si>
     <t>Le nombre est négatif.</t>
   </si>
   <si>
@@ -307,12 +376,6 @@
     <t>Insertion du magasin.</t>
   </si>
   <si>
-    <t>Insertion dans MAGASIN.PUBLICITEMAGASIN.</t>
-  </si>
-  <si>
-    <t>Insertion dans MAGASIN.NBCAISSEMAGASIN.</t>
-  </si>
-  <si>
     <t>Chaque erreur donne lieu a une inscription dans le journal de log.</t>
   </si>
   <si>
@@ -328,13 +391,16 @@
     <t>Inscription dans le fichier de log de l'erreur. L'objectif de ventes n'est pas inséré.</t>
   </si>
   <si>
-    <t>Cohérence</t>
-  </si>
-  <si>
-    <t>Vérifier l'existence du fait pour ce mois</t>
-  </si>
-  <si>
-    <t>Le fait n'existe pas</t>
+    <t>EFPFR002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFPFO004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFPFR004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>En dehors de la fourchette</t>
@@ -343,9 +409,6 @@
     <t>Insertion du CA réel en question</t>
   </si>
   <si>
-    <t>Convertir le ''.'' par la '','' ?</t>
-  </si>
-  <si>
     <t>VILLE.NOMVILLE,VILLE.IDVILLE, MAGASIN.IDMAGASIN</t>
   </si>
   <si>
@@ -454,13 +517,10 @@
     <t>Demander la vérification de la marge brute objective</t>
   </si>
   <si>
-    <t>Vérification que le champ ne contient que des chiffres et ''.''ou '',''.</t>
-  </si>
-  <si>
-    <t>Ce n'est pas un nombre</t>
-  </si>
-  <si>
-    <t>Vérification que le champ ne contient que des chiffres</t>
+    <t>MAGASIN.IDENSEIGNEMAGASIN, MAGASIN.IDVILLEMAGASIN</t>
+  </si>
+  <si>
+    <t>Referentiel</t>
   </si>
   <si>
     <t>Inscription dans le fichier de log de l'erreur. La MB réelle n'est pas insérée.</t>
@@ -518,9 +578,6 @@
     <t xml:space="preserve">Entre ]0;1000] </t>
   </si>
   <si>
-    <t>Valeur non entière, arrondi supérieur ou inférieur ?</t>
-  </si>
-  <si>
     <t>Récupérer l'identifiant de la famille d'article pour Magnetoscope</t>
   </si>
   <si>
@@ -531,9 +588,6 @@
   </si>
   <si>
     <t>Insertion dans VILLETAUXCADREVILLE.</t>
-  </si>
-  <si>
-    <t>Insertion dans VILLE.TAUXINACTIFVILLE.</t>
   </si>
   <si>
     <t>Insertion dans VILLE.MOINS25ANSVILLE.</t>
@@ -570,10 +624,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EFPS003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EFPS004</t>
   </si>
   <si>
@@ -581,9 +631,6 @@
   </si>
   <si>
     <t>EFPFO002</t>
-  </si>
-  <si>
-    <t>EFPFO003</t>
   </si>
   <si>
     <t>EFPFO001</t>
@@ -600,9 +647,6 @@
     <t>EFPFR002</t>
   </si>
   <si>
-    <t>EFPFR003</t>
-  </si>
-  <si>
     <t>EFPFO002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -611,15 +655,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EFPFR002</t>
+    <t>Création implicite du continent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EFPFO004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EFPFR004</t>
+    <t>Cas d'erreur / Exception</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -651,10 +691,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ce n'est pas un entier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Inscription dans le fichier de log de l'erreur. Arrêt du traitement</t>
   </si>
   <si>
@@ -678,10 +714,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Valeur non entière</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Four</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -690,9 +722,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Remplacer les "." par ","</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entre ]0;2000] </t>
   </si>
   <si>
@@ -732,9 +761,6 @@
     <t>EFPF0002</t>
   </si>
   <si>
-    <t>EFPF0003</t>
-  </si>
-  <si>
     <t>EFPR001</t>
   </si>
   <si>
@@ -789,34 +815,7 @@
     <t>EIVS001</t>
   </si>
   <si>
-    <t>EIES002</t>
-  </si>
-  <si>
-    <t>EIES001</t>
-  </si>
-  <si>
-    <t>EIVS002</t>
-  </si>
-  <si>
-    <t>EIRS001</t>
-  </si>
-  <si>
-    <t>EIRS002</t>
-  </si>
-  <si>
-    <t>EIPS001</t>
-  </si>
-  <si>
-    <t>EIPS002</t>
-  </si>
-  <si>
     <t>Si Ajout : Le magasin est inséré</t>
-  </si>
-  <si>
-    <t>MAGASIN.IDENSEIGNEMAGASIN, MAGASIN.IDVILLEMAGASIN</t>
-  </si>
-  <si>
-    <t>Referentiel</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1168,89 +1167,108 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1265,10 +1283,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1278,35 +1292,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1636,31 +1629,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="39" style="3" customWidth="1"/>
-    <col min="4" max="5" width="37.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="38.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="37.75" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="10.75" style="3"/>
+    <col min="4" max="5" width="37.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="38.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="23.25">
+    <row r="1" spans="1:23" ht="23">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>159</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1680,7 +1673,7 @@
     <row r="2" spans="1:23">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C2" s="4"/>
       <c r="F2" s="4"/>
@@ -1703,12 +1696,12 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="3"/>
-      <c r="B3" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="81"/>
+      <c r="B3" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="88"/>
       <c r="F3" s="3" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1753,31 +1746,31 @@
     </row>
     <row r="5" spans="1:23" s="9" customFormat="1" ht="18.75">
       <c r="A5" s="6" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1794,31 +1787,31 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:23" s="13" customFormat="1" ht="25.5">
+    <row r="6" spans="1:23" s="13" customFormat="1">
       <c r="A6" s="11" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -1835,27 +1828,27 @@
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
     </row>
-    <row r="7" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A7" s="66" t="s">
-        <v>55</v>
+    <row r="7" spans="1:23" s="15" customFormat="1">
+      <c r="A7" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="69" t="s">
-        <v>71</v>
+      <c r="H7" s="84" t="s">
+        <v>87</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -1872,27 +1865,25 @@
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
     </row>
-    <row r="8" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A8" s="67"/>
-      <c r="B8" s="69" t="s">
-        <v>85</v>
+    <row r="8" spans="1:23" s="15" customFormat="1">
+      <c r="A8" s="77"/>
+      <c r="B8" s="84" t="s">
+        <v>101</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>251</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E8" s="14"/>
       <c r="F8" s="14" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="82"/>
+        <v>199</v>
+      </c>
+      <c r="H8" s="89"/>
       <c r="I8" s="14"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -1910,24 +1901,22 @@
       <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" s="15" customFormat="1">
-      <c r="A9" s="68"/>
-      <c r="B9" s="70"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="14" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>250</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E9" s="14"/>
       <c r="F9" s="14" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="70"/>
+        <v>22</v>
+      </c>
+      <c r="H9" s="85"/>
       <c r="I9" s="14"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -1945,26 +1934,26 @@
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A10" s="63" t="s">
-        <v>56</v>
+      <c r="A10" s="81" t="s">
+        <v>74</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="83" t="s">
-        <v>73</v>
+      <c r="H10" s="90" t="s">
+        <v>89</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -1981,27 +1970,25 @@
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
     </row>
-    <row r="11" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A11" s="64"/>
-      <c r="B11" s="71" t="s">
-        <v>85</v>
+    <row r="11" spans="1:23" s="15" customFormat="1">
+      <c r="A11" s="82"/>
+      <c r="B11" s="86" t="s">
+        <v>101</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>249</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="84"/>
+        <v>10</v>
+      </c>
+      <c r="H11" s="91"/>
       <c r="I11" s="12"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -2018,25 +2005,23 @@
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
     </row>
-    <row r="12" spans="1:23" s="15" customFormat="1" ht="38.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="72"/>
+    <row r="12" spans="1:23" s="15" customFormat="1" ht="28">
+      <c r="A12" s="83"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="12" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>248</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E12" s="12"/>
       <c r="F12" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="85"/>
+        <v>26</v>
+      </c>
+      <c r="H12" s="92"/>
       <c r="I12" s="12"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -2053,27 +2038,27 @@
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
     </row>
-    <row r="13" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A13" s="66" t="s">
-        <v>15</v>
+    <row r="13" spans="1:23" s="15" customFormat="1">
+      <c r="A13" s="76" t="s">
+        <v>8</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="69" t="s">
-        <v>72</v>
+      <c r="H13" s="84" t="s">
+        <v>88</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -2090,27 +2075,25 @@
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
     </row>
-    <row r="14" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A14" s="67"/>
-      <c r="B14" s="69" t="s">
-        <v>85</v>
+    <row r="14" spans="1:23" s="15" customFormat="1">
+      <c r="A14" s="77"/>
+      <c r="B14" s="84" t="s">
+        <v>101</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E14" s="14"/>
       <c r="F14" s="14" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="82"/>
+        <v>9</v>
+      </c>
+      <c r="H14" s="89"/>
       <c r="I14" s="14"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -2128,24 +2111,24 @@
       <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:23" s="15" customFormat="1">
-      <c r="A15" s="68"/>
-      <c r="B15" s="70"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="14" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="70"/>
+        <v>34</v>
+      </c>
+      <c r="H15" s="85"/>
       <c r="I15" s="14"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -2162,27 +2145,27 @@
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
     </row>
-    <row r="16" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A16" s="79" t="s">
-        <v>240</v>
+    <row r="16" spans="1:23" s="15" customFormat="1" ht="28">
+      <c r="A16" s="72" t="s">
+        <v>242</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="71" t="s">
-        <v>93</v>
+      <c r="H16" s="86" t="s">
+        <v>109</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -2200,26 +2183,24 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="1:23" s="15" customFormat="1">
-      <c r="A17" s="86"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>245</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E17" s="12"/>
       <c r="F17" s="12" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="72"/>
+        <v>43</v>
+      </c>
+      <c r="H17" s="87"/>
       <c r="I17" s="12"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -2236,28 +2217,26 @@
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
     </row>
-    <row r="18" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A18" s="88"/>
-      <c r="B18" s="76" t="s">
-        <v>85</v>
+    <row r="18" spans="1:23" s="15" customFormat="1" ht="28">
+      <c r="A18" s="93"/>
+      <c r="B18" s="69" t="s">
+        <v>101</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>246</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E18" s="21"/>
       <c r="F18" s="21" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="88" t="s">
-        <v>95</v>
+        <v>11</v>
+      </c>
+      <c r="H18" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="10"/>
@@ -2275,25 +2254,25 @@
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
     </row>
-    <row r="19" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A19" s="89"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="62" t="s">
-        <v>244</v>
-      </c>
-      <c r="F19" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="89"/>
+    <row r="19" spans="1:23" s="15" customFormat="1">
+      <c r="A19" s="94"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="94"/>
       <c r="I19" s="30"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -2310,25 +2289,25 @@
       <c r="V19" s="10"/>
       <c r="W19" s="10"/>
     </row>
-    <row r="20" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A20" s="90"/>
-      <c r="B20" s="78"/>
+    <row r="20" spans="1:23" s="15" customFormat="1">
+      <c r="A20" s="95"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>253</v>
-      </c>
-      <c r="E20" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="F20" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="G20" s="62" t="s">
-        <v>252</v>
-      </c>
-      <c r="H20" s="90"/>
+      <c r="D20" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="H20" s="95"/>
       <c r="I20" s="30"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -2345,30 +2324,30 @@
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
     </row>
-    <row r="21" spans="1:23" s="24" customFormat="1" ht="25.5">
-      <c r="A21" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>103</v>
+    <row r="21" spans="1:23" s="24" customFormat="1" ht="28">
+      <c r="A21" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>18</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" s="95" t="s">
-        <v>74</v>
+        <v>135</v>
+      </c>
+      <c r="H21" s="74" t="s">
+        <v>90</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="20"/>
@@ -2387,20 +2366,26 @@
       <c r="W21" s="20"/>
     </row>
     <row r="22" spans="1:23" s="15" customFormat="1">
-      <c r="A22" s="87"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="12" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="96"/>
+        <v>53</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="75"/>
       <c r="I22" s="12"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -2417,28 +2402,32 @@
       <c r="V22" s="10"/>
       <c r="W22" s="10"/>
     </row>
-    <row r="23" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A23" s="80"/>
-      <c r="B23" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" s="97"/>
-      <c r="I23" s="12"/>
+    <row r="23" spans="1:23" s="15" customFormat="1" ht="28">
+      <c r="A23" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="F23" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" s="58"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -2454,32 +2443,28 @@
       <c r="V23" s="10"/>
       <c r="W23" s="10"/>
     </row>
-    <row r="24" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A24" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="59" t="s">
-        <v>145</v>
+    <row r="24" spans="1:23" s="15" customFormat="1">
+      <c r="A24" s="78"/>
+      <c r="B24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="I24" s="59"/>
+        <v>52</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="68"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -2495,646 +2480,454 @@
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
     </row>
-    <row r="25" spans="1:23" s="15" customFormat="1">
-      <c r="A25" s="67"/>
-      <c r="B25" s="21" t="s">
+    <row r="25" spans="1:23" s="24" customFormat="1" ht="28">
+      <c r="A25" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+    </row>
+    <row r="26" spans="1:23" s="15" customFormat="1">
+      <c r="A26" s="80"/>
+      <c r="B26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="75"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:23" s="15" customFormat="1" ht="28">
+      <c r="A27" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="60"/>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:23" s="15" customFormat="1">
+      <c r="A28" s="78"/>
+      <c r="B28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="66"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" s="15" customFormat="1" ht="28">
+      <c r="A29" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="35"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:23" s="15" customFormat="1" ht="28">
+      <c r="A30" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:23" s="15" customFormat="1">
+      <c r="A31" s="78"/>
+      <c r="B31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" s="68"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" s="24" customFormat="1" ht="28">
+      <c r="A32" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="1:9" s="15" customFormat="1">
+      <c r="A33" s="80"/>
+      <c r="B33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H33" s="75"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:9" s="15" customFormat="1" ht="28">
+      <c r="A34" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="58"/>
+    </row>
+    <row r="35" spans="1:9" s="15" customFormat="1">
+      <c r="A35" s="78"/>
+      <c r="B35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="68"/>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="1:9" s="27" customFormat="1" ht="42">
+      <c r="A36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="27" customFormat="1">
+      <c r="A37" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="64"/>
+      <c r="I37" s="29"/>
+    </row>
+    <row r="38" spans="1:9" s="15" customFormat="1" ht="28">
+      <c r="A38" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-    </row>
-    <row r="26" spans="1:23" s="15" customFormat="1">
-      <c r="A26" s="68"/>
-      <c r="B26" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="14" t="s">
+      <c r="D38" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="75"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-    </row>
-    <row r="27" spans="1:23" s="24" customFormat="1" ht="25.5">
-      <c r="A27" s="79" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" s="95" t="s">
-        <v>169</v>
-      </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-    </row>
-    <row r="28" spans="1:23" s="15" customFormat="1">
-      <c r="A28" s="87"/>
-      <c r="B28" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:23" s="15" customFormat="1">
-      <c r="A29" s="80"/>
-      <c r="B29" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H29" s="97"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A30" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="H30" s="61"/>
-      <c r="I30" s="21"/>
-    </row>
-    <row r="31" spans="1:23" s="24" customFormat="1">
-      <c r="A31" s="67"/>
-      <c r="B31" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="I31" s="21"/>
-    </row>
-    <row r="32" spans="1:23" s="15" customFormat="1">
-      <c r="A32" s="68"/>
-      <c r="B32" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H32" s="94"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="1:9" s="15" customFormat="1" ht="25.5">
-      <c r="A33" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="35"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" s="15" customFormat="1" ht="25.5">
-      <c r="A34" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G34" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="H34" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" s="15" customFormat="1">
-      <c r="A35" s="67"/>
-      <c r="B35" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="21"/>
-    </row>
-    <row r="36" spans="1:9" s="15" customFormat="1">
-      <c r="A36" s="68"/>
-      <c r="B36" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H36" s="75"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" s="24" customFormat="1" ht="25.5">
-      <c r="A37" s="79" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="H37" s="95" t="s">
-        <v>172</v>
-      </c>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="1:9" s="15" customFormat="1">
-      <c r="A38" s="87"/>
-      <c r="B38" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="96"/>
+      <c r="F38" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="65"/>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="1:9" s="15" customFormat="1">
-      <c r="A39" s="80"/>
-      <c r="B39" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="H39" s="97"/>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9" s="15" customFormat="1" ht="25.5">
-      <c r="A40" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="B40" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="F40" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="G40" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="I40" s="59"/>
-    </row>
-    <row r="41" spans="1:9" s="26" customFormat="1">
-      <c r="A41" s="67"/>
-      <c r="B41" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="21"/>
-    </row>
-    <row r="42" spans="1:9" s="15" customFormat="1">
-      <c r="A42" s="68"/>
-      <c r="B42" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" s="75"/>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="1:9" s="27" customFormat="1" ht="38.25">
-      <c r="A43" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="27" customFormat="1">
-      <c r="A44" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="I44" s="29"/>
-    </row>
-    <row r="45" spans="1:9" s="27" customFormat="1">
-      <c r="A45" s="86"/>
-      <c r="B45" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H45" s="92"/>
-      <c r="I45" s="29"/>
-    </row>
-    <row r="46" spans="1:9" s="15" customFormat="1">
-      <c r="A46" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="47" spans="1:9" s="15" customFormat="1" ht="25.5">
-      <c r="A47" s="80"/>
-      <c r="B47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H47" s="72"/>
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="28"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="28"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+    <row r="39" spans="1:9">
+      <c r="A39" s="28"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="28"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A46:A47"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <mergeCells count="28">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="H13:H15"/>
-    <mergeCell ref="A44:A45"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="A18:A20"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H46:H47"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H31:H32"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="H34:H35"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="39" style="3" customWidth="1"/>
-    <col min="4" max="5" width="37.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="38.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="37.75" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="10.75" style="3"/>
+    <col min="4" max="5" width="37.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="38.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="46.5">
+    <row r="1" spans="1:23" ht="23">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -3175,10 +2968,10 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="3"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
       <c r="F3" s="3" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -3223,31 +3016,31 @@
     </row>
     <row r="5" spans="1:23" s="9" customFormat="1" ht="18.75">
       <c r="A5" s="6" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -3264,57 +3057,57 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:23" s="10" customFormat="1" ht="25.5">
-      <c r="A6" s="54" t="s">
-        <v>150</v>
+    <row r="6" spans="1:23" s="10" customFormat="1" ht="28">
+      <c r="A6" s="53" t="s">
+        <v>162</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>178</v>
+        <v>124</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>188</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:23" s="13" customFormat="1" ht="25.5">
+    <row r="7" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A7" s="11" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="10"/>
@@ -3332,49 +3125,49 @@
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
     </row>
-    <row r="8" spans="1:23" s="10" customFormat="1" ht="63.75">
-      <c r="A8" s="54" t="s">
-        <v>151</v>
+    <row r="8" spans="1:23" s="10" customFormat="1" ht="56">
+      <c r="A8" s="53" t="s">
+        <v>163</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D8" s="21"/>
-      <c r="E8" s="56" t="s">
-        <v>180</v>
+      <c r="E8" s="55" t="s">
+        <v>13</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:23" s="15" customFormat="1" ht="38.25">
+    <row r="9" spans="1:23" s="15" customFormat="1" ht="42">
       <c r="A9" s="40"/>
       <c r="B9" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="10"/>
@@ -3393,29 +3186,29 @@
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" s="15" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A10" s="98" t="s">
-        <v>195</v>
+      <c r="A10" s="96" t="s">
+        <v>201</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G10" s="98" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="98" t="s">
-        <v>117</v>
+      <c r="H10" s="96" t="s">
+        <v>130</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="10"/>
@@ -3434,24 +3227,24 @@
       <c r="W10" s="10"/>
     </row>
     <row r="11" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A11" s="99"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="39" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="99"/>
+        <v>178</v>
+      </c>
+      <c r="D11" s="97"/>
       <c r="E11" s="51" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
+        <v>120</v>
+      </c>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
       <c r="I11" s="21" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -3469,23 +3262,31 @@
       <c r="W11" s="16"/>
     </row>
     <row r="12" spans="1:23" s="15" customFormat="1">
-      <c r="A12" s="100"/>
-      <c r="B12" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="F12" s="39" t="s">
+      <c r="A12" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="21"/>
+      <c r="B12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" s="12"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -3501,67 +3302,59 @@
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
     </row>
-    <row r="13" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A13" s="63" t="s">
+    <row r="13" spans="1:23" s="15" customFormat="1" ht="28">
+      <c r="A13" s="82"/>
+      <c r="B13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="82"/>
+      <c r="E13" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="63" t="s">
+      <c r="F13" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="12" t="s">
+        <v>152</v>
+      </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-    </row>
-    <row r="14" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A14" s="64"/>
-      <c r="B14" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="17" t="s">
+    </row>
+    <row r="14" spans="1:23" s="15" customFormat="1" ht="28">
+      <c r="A14" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="12" t="s">
-        <v>139</v>
-      </c>
+      <c r="H14" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="I14" s="21"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -3569,24 +3362,28 @@
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:23" s="15" customFormat="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="12"/>
+    <row r="15" spans="1:23" s="15" customFormat="1" ht="28">
+      <c r="A15" s="97"/>
+      <c r="B15" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="97"/>
+      <c r="E15" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="97"/>
+      <c r="I15" s="21" t="s">
+        <v>219</v>
+      </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -3594,32 +3391,32 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
     </row>
-    <row r="16" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A16" s="98" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="98" t="s">
+    <row r="16" spans="1:23" s="15" customFormat="1" ht="28">
+      <c r="A16" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="98" t="s">
-        <v>156</v>
-      </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -3627,20 +3424,28 @@
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="1:15" s="15" customFormat="1">
-      <c r="A17" s="99"/>
-      <c r="B17" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="21"/>
+    <row r="17" spans="1:15" s="15" customFormat="1" ht="28">
+      <c r="A17" s="82"/>
+      <c r="B17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="82"/>
+      <c r="E17" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="79"/>
+      <c r="I17" s="41" t="s">
+        <v>220</v>
+      </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -3648,28 +3453,32 @@
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A18" s="99"/>
-      <c r="B18" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="21" t="s">
-        <v>216</v>
-      </c>
+    <row r="18" spans="1:15" s="15" customFormat="1" ht="28">
+      <c r="A18" s="96" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="96" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" s="44"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -3677,32 +3486,26 @@
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A19" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" s="12" t="s">
+    <row r="19" spans="1:15" s="15" customFormat="1" ht="28" customHeight="1">
+      <c r="A19" s="97"/>
+      <c r="B19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="97"/>
+      <c r="E19" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="H19" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" s="41"/>
+      <c r="G19" s="93" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="97"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -3710,334 +3513,199 @@
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="1:15" s="15" customFormat="1">
-      <c r="A20" s="64"/>
-      <c r="B20" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-    </row>
-    <row r="21" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A21" s="64"/>
-      <c r="B21" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H21" s="87"/>
-      <c r="I21" s="41" t="s">
+    <row r="20" spans="1:15" s="24" customFormat="1">
+      <c r="A20" s="97"/>
+      <c r="B20" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-    </row>
-    <row r="22" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A22" s="98" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="98" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="46" t="s">
+      <c r="D20" s="97"/>
+      <c r="E20" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="95"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="H22" s="98" t="s">
-        <v>160</v>
-      </c>
-      <c r="I22" s="44"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+    </row>
+    <row r="21" spans="1:15" s="15" customFormat="1" ht="28">
+      <c r="A21" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" s="44"/>
+    </row>
+    <row r="22" spans="1:15" s="15" customFormat="1" ht="28" customHeight="1">
+      <c r="A22" s="82"/>
+      <c r="B22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="79"/>
+      <c r="E22" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" s="79"/>
+      <c r="I22" s="41"/>
     </row>
     <row r="23" spans="1:15" s="15" customFormat="1">
-      <c r="A23" s="99"/>
-      <c r="B23" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-    </row>
-    <row r="24" spans="1:15" s="15" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A24" s="99"/>
-      <c r="B24" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="99"/>
-      <c r="E24" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="H24" s="99"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-    </row>
-    <row r="25" spans="1:15" s="24" customFormat="1">
-      <c r="A25" s="99"/>
-      <c r="B25" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="D25" s="99"/>
-      <c r="E25" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="90"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-    </row>
-    <row r="26" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A26" s="63" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="H26" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="I26" s="44"/>
-    </row>
-    <row r="27" spans="1:15" s="24" customFormat="1">
-      <c r="A27" s="64"/>
-      <c r="B27" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:15" s="15" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A28" s="64"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="87"/>
-      <c r="E28" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="H28" s="87"/>
-      <c r="I28" s="41"/>
-    </row>
-    <row r="29" spans="1:15" s="15" customFormat="1">
-      <c r="A29" s="65"/>
-      <c r="B29" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D29" s="80"/>
-      <c r="E29" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="65"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="41" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="24" customFormat="1"/>
-    <row r="31" spans="1:15" s="15" customFormat="1"/>
-    <row r="32" spans="1:15" s="15" customFormat="1"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D23" s="80"/>
+      <c r="E23" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="83"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="24" customFormat="1"/>
+    <row r="25" spans="1:15" s="15" customFormat="1"/>
+    <row r="26" spans="1:15" s="15" customFormat="1"/>
+    <row r="27" spans="1:15" s="15" customFormat="1"/>
+    <row r="28" spans="1:15" s="26" customFormat="1"/>
+    <row r="29" spans="1:15" s="15" customFormat="1"/>
+    <row r="30" spans="1:15" s="27" customFormat="1"/>
+    <row r="31" spans="1:15" s="27" customFormat="1"/>
+    <row r="32" spans="1:15" s="27" customFormat="1"/>
     <row r="33" spans="1:9" s="15" customFormat="1"/>
-    <row r="34" spans="1:9" s="26" customFormat="1"/>
-    <row r="35" spans="1:9" s="15" customFormat="1"/>
-    <row r="36" spans="1:9" s="27" customFormat="1"/>
-    <row r="37" spans="1:9" s="27" customFormat="1"/>
-    <row r="38" spans="1:9" s="27" customFormat="1"/>
-    <row r="39" spans="1:9" s="15" customFormat="1"/>
-    <row r="40" spans="1:9" s="15" customFormat="1"/>
-    <row r="41" spans="1:9">
-      <c r="A41" s="28"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="28"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-    </row>
+    <row r="34" spans="1:9" s="15" customFormat="1"/>
+    <row r="35" spans="1:9">
+      <c r="A35" s="28"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="28"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" ht="17"/>
+    <row r="38" spans="1:9" ht="17"/>
+    <row r="39" spans="1:9" ht="17"/>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <dataConsolidate/>
   <mergeCells count="23">
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="G19:G20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="39" style="3" customWidth="1"/>
-    <col min="4" max="5" width="37.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="38.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="37.75" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="10.75" style="3"/>
+    <col min="4" max="5" width="37.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="38.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="23.25">
+    <row r="1" spans="1:23" ht="23">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -4078,10 +3746,10 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="3"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
       <c r="F3" s="3" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -4126,31 +3794,31 @@
     </row>
     <row r="5" spans="1:23" s="9" customFormat="1" ht="18.75">
       <c r="A5" s="6" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -4167,30 +3835,30 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:23" s="9" customFormat="1" ht="25.5">
-      <c r="A6" s="54" t="s">
-        <v>150</v>
+    <row r="6" spans="1:23" s="9" customFormat="1" ht="28">
+      <c r="A6" s="53" t="s">
+        <v>162</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>221</v>
+        <v>124</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>224</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="8"/>
@@ -4208,30 +3876,30 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
     </row>
-    <row r="7" spans="1:23" s="13" customFormat="1" ht="25.5">
+    <row r="7" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A7" s="11" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="10"/>
@@ -4249,49 +3917,49 @@
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
     </row>
-    <row r="8" spans="1:23" s="10" customFormat="1" ht="63.75">
-      <c r="A8" s="54" t="s">
-        <v>151</v>
+    <row r="8" spans="1:23" s="10" customFormat="1" ht="56">
+      <c r="A8" s="53" t="s">
+        <v>163</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D8" s="21"/>
-      <c r="E8" s="56" t="s">
-        <v>223</v>
+      <c r="E8" s="55" t="s">
+        <v>226</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:23" s="15" customFormat="1" ht="38.25">
+    <row r="9" spans="1:23" s="15" customFormat="1" ht="42">
       <c r="A9" s="40"/>
       <c r="B9" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="10"/>
@@ -4310,29 +3978,29 @@
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="98" t="s">
-        <v>195</v>
+      <c r="A10" s="96" t="s">
+        <v>201</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G10" s="98" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="98" t="s">
-        <v>117</v>
+      <c r="H10" s="96" t="s">
+        <v>130</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="10"/>
@@ -4351,24 +4019,24 @@
       <c r="W10" s="10"/>
     </row>
     <row r="11" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A11" s="99"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="39" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="57" t="s">
-        <v>225</v>
+        <v>176</v>
+      </c>
+      <c r="D11" s="97"/>
+      <c r="E11" s="56" t="s">
+        <v>228</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
+        <v>120</v>
+      </c>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
       <c r="I11" s="21" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -4386,23 +4054,31 @@
       <c r="W11" s="16"/>
     </row>
     <row r="12" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A12" s="100"/>
-      <c r="B12" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="21"/>
+      <c r="A12" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" s="12"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
@@ -4418,100 +4094,96 @@
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
     </row>
-    <row r="13" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A13" s="63" t="s">
-        <v>208</v>
-      </c>
+    <row r="13" spans="1:23" s="15" customFormat="1" ht="28">
+      <c r="A13" s="82"/>
       <c r="B13" s="17" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>186</v>
+        <v>176</v>
+      </c>
+      <c r="D13" s="82"/>
+      <c r="E13" s="54" t="s">
+        <v>196</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-    </row>
-    <row r="14" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A14" s="64"/>
-      <c r="B14" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="12" t="s">
-        <v>138</v>
-      </c>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="1:23" s="15" customFormat="1" ht="28">
+      <c r="A14" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="I14" s="21"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="1:23" s="15" customFormat="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="12"/>
+    </row>
+    <row r="15" spans="1:23" s="15" customFormat="1" ht="28">
+      <c r="A15" s="97"/>
+      <c r="B15" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="97"/>
+      <c r="E15" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="97"/>
+      <c r="I15" s="21" t="s">
+        <v>219</v>
+      </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -4519,32 +4191,32 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
     </row>
-    <row r="16" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A16" s="98" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="98" t="s">
+    <row r="16" spans="1:23" s="15" customFormat="1" ht="28">
+      <c r="A16" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="57" t="s">
-        <v>229</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="98" t="s">
-        <v>156</v>
-      </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -4552,20 +4224,28 @@
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="1:15" s="15" customFormat="1">
-      <c r="A17" s="99"/>
-      <c r="B17" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="21"/>
+    <row r="17" spans="1:15" s="15" customFormat="1" ht="28">
+      <c r="A17" s="82"/>
+      <c r="B17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="82"/>
+      <c r="E17" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="79"/>
+      <c r="I17" s="41" t="s">
+        <v>220</v>
+      </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -4573,61 +4253,59 @@
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A18" s="99"/>
-      <c r="B18" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="39" t="s">
+    <row r="18" spans="1:15" s="24" customFormat="1" ht="28">
+      <c r="A18" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="96" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" s="44"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="1:15" s="15" customFormat="1" ht="28">
+      <c r="A19" s="97"/>
+      <c r="B19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-    </row>
-    <row r="19" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A19" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" s="43" t="s">
+      <c r="D19" s="97"/>
+      <c r="E19" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="H19" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" s="41"/>
+      <c r="G19" s="93" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="97"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -4636,19 +4314,25 @@
       <c r="O19" s="10"/>
     </row>
     <row r="20" spans="1:15" s="15" customFormat="1">
-      <c r="A20" s="64"/>
-      <c r="B20" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="41"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" s="97"/>
+      <c r="E20" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="95"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="21" t="s">
+        <v>157</v>
+      </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -4656,314 +4340,174 @@
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A21" s="64"/>
-      <c r="B21" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H21" s="87"/>
-      <c r="I21" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-    </row>
-    <row r="22" spans="1:15" s="24" customFormat="1" ht="25.5">
-      <c r="A22" s="98" t="s">
-        <v>211</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="98" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" s="98" t="s">
-        <v>160</v>
-      </c>
-      <c r="I22" s="44"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
+    <row r="21" spans="1:15" s="15" customFormat="1" ht="28">
+      <c r="A21" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" s="41"/>
+    </row>
+    <row r="22" spans="1:15" s="24" customFormat="1" ht="28">
+      <c r="A22" s="82"/>
+      <c r="B22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="79"/>
+      <c r="E22" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" s="79"/>
+      <c r="I22" s="41"/>
     </row>
     <row r="23" spans="1:15" s="15" customFormat="1">
-      <c r="A23" s="99"/>
-      <c r="B23" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-    </row>
-    <row r="24" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A24" s="99"/>
-      <c r="B24" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="99"/>
-      <c r="E24" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="H24" s="99"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-    </row>
-    <row r="25" spans="1:15" s="15" customFormat="1">
-      <c r="A25" s="99"/>
-      <c r="B25" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="D25" s="99"/>
-      <c r="E25" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="90"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-    </row>
-    <row r="26" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A26" s="63" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="H26" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="I26" s="41"/>
-    </row>
-    <row r="27" spans="1:15" s="15" customFormat="1">
-      <c r="A27" s="64"/>
-      <c r="B27" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:15" s="24" customFormat="1" ht="25.5">
-      <c r="A28" s="64"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="87"/>
-      <c r="E28" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="H28" s="87"/>
-      <c r="I28" s="41"/>
-    </row>
-    <row r="29" spans="1:15" s="15" customFormat="1">
-      <c r="A29" s="64"/>
-      <c r="B29" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="65"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="41" t="s">
-        <v>143</v>
-      </c>
-    </row>
+      <c r="A23" s="82"/>
+      <c r="B23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D23" s="79"/>
+      <c r="E23" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="83"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="15" customFormat="1"/>
+    <row r="25" spans="1:15" s="24" customFormat="1"/>
+    <row r="26" spans="1:15" s="15" customFormat="1"/>
+    <row r="27" spans="1:15" s="15" customFormat="1"/>
+    <row r="28" spans="1:15" s="15" customFormat="1"/>
+    <row r="29" spans="1:15" s="26" customFormat="1"/>
     <row r="30" spans="1:15" s="15" customFormat="1"/>
-    <row r="31" spans="1:15" s="24" customFormat="1"/>
-    <row r="32" spans="1:15" s="15" customFormat="1"/>
-    <row r="33" spans="1:9" s="15" customFormat="1"/>
+    <row r="31" spans="1:15" s="27" customFormat="1"/>
+    <row r="32" spans="1:15" s="27" customFormat="1"/>
+    <row r="33" spans="1:9" s="27" customFormat="1"/>
     <row r="34" spans="1:9" s="15" customFormat="1"/>
-    <row r="35" spans="1:9" s="26" customFormat="1"/>
-    <row r="36" spans="1:9" s="15" customFormat="1"/>
-    <row r="37" spans="1:9" s="27" customFormat="1"/>
-    <row r="38" spans="1:9" s="27" customFormat="1"/>
-    <row r="39" spans="1:9" s="27" customFormat="1"/>
-    <row r="40" spans="1:9" s="15" customFormat="1"/>
-    <row r="41" spans="1:9" s="15" customFormat="1"/>
-    <row r="42" spans="1:9">
-      <c r="A42" s="28"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="28"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-    </row>
+    <row r="35" spans="1:9" s="15" customFormat="1"/>
+    <row r="36" spans="1:9">
+      <c r="A36" s="28"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="28"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="17"/>
+    <row r="39" spans="1:9" ht="17"/>
+    <row r="40" spans="1:9" ht="17"/>
+    <row r="41" spans="1:9" ht="17"/>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="23">
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="G19:G20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="39" style="3" customWidth="1"/>
-    <col min="4" max="5" width="37.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="38.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="37.75" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="10.75" style="3"/>
+    <col min="4" max="5" width="37.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="38.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="23.25">
+    <row r="1" spans="1:23" ht="23">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -5004,10 +4548,10 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="3"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
       <c r="F3" s="3" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -5050,33 +4594,33 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:23" s="9" customFormat="1" ht="18.75">
+    <row r="5" spans="1:23" s="9" customFormat="1" ht="18">
       <c r="A5" s="6" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -5093,30 +4637,30 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:23" s="9" customFormat="1" ht="25.5">
-      <c r="A6" s="54" t="s">
-        <v>150</v>
+    <row r="6" spans="1:23" s="9" customFormat="1" ht="28">
+      <c r="A6" s="53" t="s">
+        <v>162</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>221</v>
+        <v>124</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>224</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="8"/>
@@ -5134,30 +4678,30 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
     </row>
-    <row r="7" spans="1:23" s="13" customFormat="1" ht="25.5">
+    <row r="7" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A7" s="11" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>222</v>
+        <v>122</v>
+      </c>
+      <c r="E7" s="98" t="s">
+        <v>225</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="10"/>
@@ -5175,49 +4719,49 @@
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
     </row>
-    <row r="8" spans="1:23" s="10" customFormat="1" ht="63.75">
-      <c r="A8" s="54" t="s">
-        <v>151</v>
+    <row r="8" spans="1:23" s="10" customFormat="1" ht="56">
+      <c r="A8" s="53" t="s">
+        <v>163</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D8" s="21"/>
-      <c r="E8" s="21" t="s">
-        <v>223</v>
+      <c r="E8" s="55" t="s">
+        <v>226</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:23" s="15" customFormat="1" ht="38.25">
+    <row r="9" spans="1:23" s="15" customFormat="1" ht="42">
       <c r="A9" s="40"/>
       <c r="B9" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>181</v>
+        <v>127</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="10"/>
@@ -5236,29 +4780,29 @@
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" s="15" customFormat="1">
-      <c r="A10" s="98" t="s">
-        <v>195</v>
+      <c r="A10" s="96" t="s">
+        <v>201</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G10" s="98" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="98" t="s">
-        <v>117</v>
+      <c r="H10" s="96" t="s">
+        <v>130</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="10"/>
@@ -5277,24 +4821,24 @@
       <c r="W10" s="10"/>
     </row>
     <row r="11" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A11" s="99"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="39" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="57" t="s">
-        <v>183</v>
+        <v>176</v>
+      </c>
+      <c r="D11" s="97"/>
+      <c r="E11" s="56" t="s">
+        <v>192</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
+        <v>120</v>
+      </c>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
       <c r="I11" s="21" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -5312,23 +4856,31 @@
       <c r="W11" s="16"/>
     </row>
     <row r="12" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A12" s="100"/>
-      <c r="B12" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="21"/>
+      <c r="A12" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" s="12"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
@@ -5344,100 +4896,96 @@
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
     </row>
-    <row r="13" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A13" s="63" t="s">
-        <v>208</v>
-      </c>
+    <row r="13" spans="1:23" s="15" customFormat="1" ht="28">
+      <c r="A13" s="82"/>
       <c r="B13" s="17" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>186</v>
+        <v>176</v>
+      </c>
+      <c r="D13" s="82"/>
+      <c r="E13" s="54" t="s">
+        <v>196</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-    </row>
-    <row r="14" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A14" s="64"/>
-      <c r="B14" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="12" t="s">
-        <v>219</v>
-      </c>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="1:23" s="15" customFormat="1" ht="28">
+      <c r="A14" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="I14" s="21"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="1:23" s="15" customFormat="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="12"/>
+    </row>
+    <row r="15" spans="1:23" s="15" customFormat="1" ht="28">
+      <c r="A15" s="97"/>
+      <c r="B15" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="97"/>
+      <c r="E15" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="97"/>
+      <c r="I15" s="21" t="s">
+        <v>219</v>
+      </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -5445,32 +4993,32 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
     </row>
-    <row r="16" spans="1:23" s="15" customFormat="1" ht="25.5">
-      <c r="A16" s="98" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="98" t="s">
+    <row r="16" spans="1:23" s="15" customFormat="1" ht="28">
+      <c r="A16" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="98" t="s">
-        <v>156</v>
-      </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -5478,20 +5026,28 @@
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="1:15" s="15" customFormat="1">
-      <c r="A17" s="99"/>
-      <c r="B17" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="21"/>
+    <row r="17" spans="1:15" s="15" customFormat="1" ht="28">
+      <c r="A17" s="82"/>
+      <c r="B17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="82"/>
+      <c r="E17" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="79"/>
+      <c r="I17" s="41" t="s">
+        <v>220</v>
+      </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -5499,61 +5055,59 @@
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A18" s="99"/>
-      <c r="B18" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="39" t="s">
+    <row r="18" spans="1:15" s="24" customFormat="1" ht="28">
+      <c r="A18" s="96" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="96" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" s="44"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="1:15" s="15" customFormat="1" ht="28">
+      <c r="A19" s="97"/>
+      <c r="B19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-    </row>
-    <row r="19" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A19" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" s="43" t="s">
+      <c r="D19" s="97"/>
+      <c r="E19" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="H19" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" s="41"/>
+      <c r="G19" s="93" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="97"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -5562,19 +5116,25 @@
       <c r="O19" s="10"/>
     </row>
     <row r="20" spans="1:15" s="15" customFormat="1">
-      <c r="A20" s="64"/>
-      <c r="B20" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="41"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" s="97"/>
+      <c r="E20" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="95"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="21" t="s">
+        <v>157</v>
+      </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -5582,287 +5142,147 @@
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A21" s="64"/>
-      <c r="B21" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H21" s="87"/>
-      <c r="I21" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-    </row>
-    <row r="22" spans="1:15" s="24" customFormat="1" ht="25.5">
-      <c r="A22" s="98" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="98" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" s="98" t="s">
+    <row r="21" spans="1:15" s="15" customFormat="1" ht="28">
+      <c r="A21" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="I22" s="44"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
+      <c r="H21" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" s="41"/>
+    </row>
+    <row r="22" spans="1:15" s="24" customFormat="1" ht="28">
+      <c r="A22" s="82"/>
+      <c r="B22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="79"/>
+      <c r="E22" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" s="79"/>
+      <c r="I22" s="41"/>
     </row>
     <row r="23" spans="1:15" s="15" customFormat="1">
-      <c r="A23" s="99"/>
-      <c r="B23" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-    </row>
-    <row r="24" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A24" s="99"/>
-      <c r="B24" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="99"/>
-      <c r="E24" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="H24" s="99"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-    </row>
-    <row r="25" spans="1:15" s="15" customFormat="1">
-      <c r="A25" s="99"/>
-      <c r="B25" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="D25" s="99"/>
-      <c r="E25" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="90"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-    </row>
-    <row r="26" spans="1:15" s="15" customFormat="1" ht="25.5">
-      <c r="A26" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="H26" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="I26" s="41"/>
-    </row>
-    <row r="27" spans="1:15" s="15" customFormat="1">
-      <c r="A27" s="64"/>
-      <c r="B27" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:15" s="24" customFormat="1" ht="25.5">
-      <c r="A28" s="64"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="87"/>
-      <c r="E28" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="H28" s="87"/>
-      <c r="I28" s="41"/>
-    </row>
-    <row r="29" spans="1:15" s="15" customFormat="1">
-      <c r="A29" s="64"/>
-      <c r="B29" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="65"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="41" t="s">
-        <v>143</v>
-      </c>
-    </row>
+      <c r="A23" s="82"/>
+      <c r="B23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D23" s="79"/>
+      <c r="E23" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="83"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="15" customFormat="1"/>
+    <row r="25" spans="1:15" s="24" customFormat="1"/>
+    <row r="26" spans="1:15" s="15" customFormat="1"/>
+    <row r="27" spans="1:15" s="15" customFormat="1"/>
+    <row r="28" spans="1:15" s="15" customFormat="1"/>
+    <row r="29" spans="1:15" s="26" customFormat="1"/>
     <row r="30" spans="1:15" s="15" customFormat="1"/>
-    <row r="31" spans="1:15" s="24" customFormat="1"/>
-    <row r="32" spans="1:15" s="15" customFormat="1"/>
-    <row r="33" spans="1:9" s="15" customFormat="1"/>
+    <row r="31" spans="1:15" s="27" customFormat="1"/>
+    <row r="32" spans="1:15" s="27" customFormat="1"/>
+    <row r="33" spans="1:9" s="27" customFormat="1"/>
     <row r="34" spans="1:9" s="15" customFormat="1"/>
-    <row r="35" spans="1:9" s="26" customFormat="1"/>
-    <row r="36" spans="1:9" s="15" customFormat="1"/>
-    <row r="37" spans="1:9" s="27" customFormat="1"/>
-    <row r="38" spans="1:9" s="27" customFormat="1"/>
-    <row r="39" spans="1:9" s="27" customFormat="1"/>
-    <row r="40" spans="1:9" s="15" customFormat="1"/>
-    <row r="41" spans="1:9" s="15" customFormat="1"/>
-    <row r="42" spans="1:9">
-      <c r="A42" s="28"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="28"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-    </row>
+    <row r="35" spans="1:9" s="15" customFormat="1"/>
+    <row r="36" spans="1:9">
+      <c r="A36" s="28"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="28"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="17"/>
+    <row r="39" spans="1:9" ht="17"/>
+    <row r="40" spans="1:9" ht="17"/>
+    <row r="41" spans="1:9" ht="17"/>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="23">
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="G19:G20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/ALIMENTATION/DartiesMatriceSourceCible2.xlsx
+++ b/ALIMENTATION/DartiesMatriceSourceCible2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="-80" windowWidth="24060" windowHeight="13860" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="860" yWindow="-80" windowWidth="24060" windowHeight="13860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Referentiel" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,766 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="274">
+  <si>
+    <t>Nombre entier attendu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nombre positif attendu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L'addition des pourcentages ne fait pas 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>La marge &gt; 50% du chiffre d'affaires</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Le nombre n'est pas plausible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Identifiant famille article inconnu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Identifiant ville inconnue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Identifiant magasin inconnu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Identifiant fait inconnu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFS002, EIFS003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code erreur programme java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Les Erreurs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFS = Erreur Fait Structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERS = Erreur Référentiel Structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unicité de la ville non respectée</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERS002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERS003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modification, suppression d'une ville inconnue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modification, suppression d'une ville inconnue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD = Erreur Référentiel Donnée</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entre [0;100]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entre [0;100]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFS001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFS004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFFD002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFD = Erreur Fait Donnée</t>
+  </si>
+  <si>
+    <t>Ne contient pas des chiffres et "." / ","</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N'est pas dans la fourchette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD004, ERD003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Création implicite du continent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cas d'erreur / Exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_VE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R_VE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R_CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R_MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magnetoscope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inscription dans le fichier de log de l'erreur. Arrêt du traitement</t>
+  </si>
+  <si>
+    <t>Inscription dans le fichier de log de l'erreur. Arrêt du traitement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inscription dans le fichier de log de l'erreur. Arrêt du traitement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Insertion objectif : Créer le fait pour ce mois, cet article et ce magasin                                                                                      Insertion Réel : Arrêt du traitement                               </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Récupérer l'identifiant de la famille d'article pour Four</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R_VE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Four</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre ]0;2000] </t>
+  </si>
+  <si>
+    <t>Entre [-10;10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre [-10;10] </t>
+  </si>
+  <si>
+    <t>Demande de confirmation pour l'objectif CA = 0 ou supérieur au maximum défini</t>
+  </si>
+  <si>
+    <t>Demande de confirmation pour le CA réel = 0 ou supérieur au maximum défini</t>
+  </si>
+  <si>
+    <t>Demander la vérification du chiffre pour l'objectif de vente = 0 ou supérieur au maximum défini</t>
+  </si>
+  <si>
+    <t>Demander la vérification du chiffre pour la vente réelle = 0 ou supérieur au maximum défini</t>
+  </si>
+  <si>
+    <t>Code Erreur</t>
+  </si>
+  <si>
+    <t>Entre [0;100]</t>
+  </si>
+  <si>
+    <t>Le magasin a une enseigne qui est celle renseignée sur la même ligne.</t>
+  </si>
+  <si>
+    <t>Enseigne</t>
+  </si>
+  <si>
+    <t>L'association ville et enseigne forme un magasin</t>
+  </si>
+  <si>
+    <t>Le magasin n'existe pas</t>
+  </si>
+  <si>
+    <t>Si Ajout : Le magasin est inséré</t>
+  </si>
+  <si>
+    <t>ERS001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demander la vérification du chiffre réel de vente si = 0 ou supérieur au maximum défini</t>
+  </si>
+  <si>
+    <t>&gt; 50% du CA objectif &lt;mois&gt; magnetoscope, magasin</t>
+  </si>
+  <si>
+    <t>&gt; 50% CA réel &lt;mois&gt;, magnétoscope, magasin</t>
+  </si>
+  <si>
+    <t>Marge &lt;= 50% du chiffre d'affaires objectif du &lt;mois&gt; , magnétoscope, magasin</t>
+  </si>
+  <si>
+    <t>Demander la vérification de la marge brute réelle</t>
+  </si>
+  <si>
+    <t>Demander la vérification de la marge brute objective</t>
+  </si>
+  <si>
+    <t>MAGASIN.IDENSEIGNEMAGASIN, MAGASIN.IDVILLEMAGASIN</t>
+  </si>
+  <si>
+    <t>Referentiel</t>
+  </si>
+  <si>
+    <t>Inscription dans le fichier de log de l'erreur. La MB réelle n'est pas insérée.</t>
+  </si>
+  <si>
+    <t>Code Erreur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nom de la Feuille</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mois</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Récupérer le numéro du mois</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inscription dans le fichier de log de l'erreur. Le chiffre d'affaires réel de ventes n'est pas inséré.</t>
+  </si>
+  <si>
+    <t>FAITS.CAREELFAITS</t>
+  </si>
+  <si>
+    <t>Inscription dans le fichier de log de l'erreur. L'objectif de CA n'est pas inséré.</t>
+  </si>
+  <si>
+    <t>Insertion de l'objectif CA en question</t>
+  </si>
+  <si>
+    <t>Inscription dans le fichier de log de l'erreur. L'objectif de MB n'est pas inséré.</t>
+  </si>
+  <si>
+    <t>Insertion du MB réel en question</t>
+  </si>
+  <si>
+    <t>Inscription dans le fichier de log de l'erreur. La marge brute réelle n'est pas insérée.</t>
+  </si>
+  <si>
+    <t>Insertion de l'objectif MB en question</t>
+  </si>
+  <si>
+    <t>FAITS.MARGEOBJECTIFFAITS</t>
+  </si>
+  <si>
+    <t>FAITS.MARGEREELFAITS</t>
+  </si>
+  <si>
+    <t>La région appartient au pays renseigné sur la même ligne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre ]0;1000] </t>
+  </si>
+  <si>
+    <t>Récupérer l'identifiant de la famille d'article pour Magnetoscope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre ]0;500] </t>
+  </si>
+  <si>
+    <t>Insertion dans VILLE.TAUXOUVRIERVILLE.</t>
+  </si>
+  <si>
+    <t>Insertion dans VILLETAUXCADREVILLE.</t>
+  </si>
+  <si>
+    <t>Insertion dans VILLE.MOINS25ANSVILLE.</t>
+  </si>
+  <si>
+    <t>Insertion dans VILLE.2535ANSVILLE.</t>
+  </si>
+  <si>
+    <t>Inscription dans le fichier de log de l'erreur. Arrêt du traitement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insertion Objectif : Il n'y a pas les 12 mois.                                                           Les mois ne sont pas par ordre croissant Mois ne sont pas entre [1;12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Récupérer l'identifiant de la famille d'article pour Hifi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R_MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hifi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insertion dans VILLE.PLUS35ANSVILLE.</t>
+  </si>
+  <si>
+    <t>Insertion de l'enseigne.</t>
+  </si>
+  <si>
+    <t>Insertion de la devise.</t>
+  </si>
+  <si>
+    <t>Insertion du magasin.</t>
+  </si>
+  <si>
+    <t>Chaque erreur donne lieu a une inscription dans le journal de log.</t>
+  </si>
+  <si>
+    <t>Légende</t>
+  </si>
+  <si>
+    <t>Récupérer l'identifiant de la ville pour récupérer l'identifiant du magasin</t>
+  </si>
+  <si>
+    <t>La ville n'existe pas, il n'y a pas de magasin dans cette ville</t>
+  </si>
+  <si>
+    <t>Inscription dans le fichier de log de l'erreur. L'objectif de ventes n'est pas inséré.</t>
+  </si>
+  <si>
+    <t>En dehors de la fourchette</t>
+  </si>
+  <si>
+    <t>Insertion du CA réel en question</t>
+  </si>
+  <si>
+    <t>VILLE.NOMVILLE,VILLE.IDVILLE, MAGASIN.IDMAGASIN</t>
+  </si>
+  <si>
+    <t>Récupération de MAGASIN.IDMAGASIN</t>
+  </si>
+  <si>
+    <t>FAMILLEARTICLE.NOMFAMILLEARTCILE, FAMILLEARTICLE.IDFAMILLEARTCILE,</t>
+  </si>
+  <si>
+    <t>La famille article  n'existe pas</t>
+  </si>
+  <si>
+    <t>Récupération de FAMILLEARTICLE.IDFAMILLEARTCILE</t>
+  </si>
+  <si>
+    <t>FAITS.IDMOIS, FAITS.IDMAGASIN, FAITS.IDFAMILLEARTICLE</t>
+  </si>
+  <si>
+    <t>Récupération de l'identifiant du fait : FAITS.IDMOIS, FAITS.IDMAGASIN, FAITS.IDFAMILLEARTICLE</t>
+  </si>
+  <si>
+    <t>FAITS.VENTESOBJECTIFFAITS</t>
+  </si>
+  <si>
+    <t>Insertion de l'objectif de vente en question</t>
+  </si>
+  <si>
+    <t>FAITS.VENTESREELFAITS</t>
+  </si>
+  <si>
+    <t>Inscription dans le fichier de log de l'erreur. Le chiffre réel de ventes n'est pas inséré.</t>
+  </si>
+  <si>
+    <t>Insertion de la vente réelle en question</t>
+  </si>
+  <si>
+    <t>FAITS.CAOBJECTIFFAITS</t>
+  </si>
+  <si>
+    <t>Le champ VILLE.POPULATIONVILLE reste vide.</t>
+  </si>
+  <si>
+    <t>Taux_Cadre</t>
+  </si>
+  <si>
+    <t>VILLE.TAUXCADREVILLE</t>
+  </si>
+  <si>
+    <t>Le champ VILLE.TAUXCADREVILLE reste vide.</t>
+  </si>
+  <si>
+    <t>Taux_Inact</t>
+  </si>
+  <si>
+    <t>Moins_25an</t>
+  </si>
+  <si>
+    <t>VILLE.TAUXINACTIFVILLE</t>
+  </si>
+  <si>
+    <t>Le champ VILLE.TAUXINACTIFVILLE reste vide.</t>
+  </si>
+  <si>
+    <t>VILLE.MOINS25ANSVILLE</t>
+  </si>
+  <si>
+    <t>Le champ VILLE.MOINS25ANSVILLE reste vide.</t>
+  </si>
+  <si>
+    <t>Les_25_35a</t>
+  </si>
+  <si>
+    <t>VILLE.2535ANSVILLE</t>
+  </si>
+  <si>
+    <t>Le champ VILLE.2535ANSVILLE reste vide.</t>
+  </si>
+  <si>
+    <t>Plus_35ans</t>
+  </si>
+  <si>
+    <t>Demander la vérification du chiffre de vente objectif si = 0 ou supérieur au maximum défini</t>
+  </si>
+  <si>
+    <t>Demander la vérification du chiffre réel de vente si =0 ou supérieur au maximum défini</t>
+  </si>
+  <si>
+    <t>Vérification, via internet, que le nombre est plausible.</t>
+  </si>
+  <si>
+    <t>Taux_Ouvri</t>
+  </si>
+  <si>
+    <t>VILLE.TAUXOUVRIERVILLE</t>
+  </si>
+  <si>
+    <t>VILLE.POPULATIONVILLE</t>
+  </si>
+  <si>
+    <t>Le champ VILLE.TAUXOUVRIERVILLE reste vide.</t>
+  </si>
+  <si>
+    <t>Moins_25an, Les_25_35a, Plus_35ans</t>
+  </si>
+  <si>
+    <t>L'addition des trois champs doit donner 100.</t>
+  </si>
+  <si>
+    <t>L'addition ne donne pas 100.</t>
+  </si>
+  <si>
+    <t>Aucun des trois champs ne peut être rempli.</t>
+  </si>
+  <si>
+    <t>VILLE.PLUS35ANSVILLE</t>
+  </si>
+  <si>
+    <t>Le champ VILLE.PLUS35ANSVILLE reste vide.</t>
+  </si>
+  <si>
+    <t>Continent</t>
+  </si>
+  <si>
+    <t>Champ(s) Excel</t>
+  </si>
+  <si>
+    <t>A modifier si le nom dans la base n'est pas correct</t>
+  </si>
+  <si>
+    <t>REGIONCOMMERCIALE.IDPAYSREGIONCOMMERCIALE</t>
+  </si>
+  <si>
+    <t>REGIONCOMMERCIALE.NOMREGIONCOMMERCIALE, REGIONCOMMERCIALE.NOMPAYSREGIONCOMMERCIALE</t>
+  </si>
+  <si>
+    <t>Vérification que le champ ne contient que des chiffres et ''.''ou '',''.</t>
+  </si>
+  <si>
+    <t>Ce n'est pas un nombre</t>
+  </si>
+  <si>
+    <t>REGION.NOMREGIONCOMMERCIALE</t>
+  </si>
+  <si>
+    <t>Publicité</t>
+  </si>
+  <si>
+    <t>MAGASIN.PUBLICITEMAGASIN</t>
+  </si>
+  <si>
+    <t>Nb_Caisses</t>
+  </si>
+  <si>
+    <t>MAGASIN.NBCAISSEMAGASIN</t>
+  </si>
+  <si>
+    <t>Pays</t>
+  </si>
+  <si>
+    <t>Région</t>
+  </si>
+  <si>
+    <t>MAGASIN.IDENSEIGNEMAGASIN</t>
+  </si>
+  <si>
+    <t>Le magasin a une ville qui est celle renseignée sur la même ligne.</t>
+  </si>
+  <si>
+    <t>MAGASIN.IDVILLEMAGASIN</t>
+  </si>
+  <si>
+    <t>La ville n'existe pas.</t>
+  </si>
+  <si>
+    <t>L'enseigne n'existe pas.</t>
+  </si>
+  <si>
+    <t>Cas de succès</t>
+  </si>
+  <si>
+    <t>Le nombre est négatif.</t>
+  </si>
+  <si>
+    <t>Le champ reste vide ou est mis à 0 ?</t>
+  </si>
+  <si>
+    <t>Le nombre doit être positif et entier.</t>
+  </si>
+  <si>
+    <t>Le nombre est négatif ou n'est pas entier.</t>
+  </si>
+  <si>
+    <t>Le champ reste vide.</t>
+  </si>
+  <si>
+    <t>Insertion du continent.</t>
+  </si>
+  <si>
+    <t>Insertion du pays.</t>
+  </si>
+  <si>
+    <t>Insertion de la ville.</t>
+  </si>
+  <si>
+    <t>Insertion de la région.</t>
+  </si>
+  <si>
+    <t>Insertion dans VILLE.POPULATIONVILLE.</t>
+  </si>
+  <si>
+    <t>Type de traitement</t>
+  </si>
+  <si>
+    <t>Explication du traitement</t>
+  </si>
+  <si>
+    <t>Champ(s) dans la base de données</t>
+  </si>
+  <si>
+    <t>Cas d'erreur</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>CONTINENT.NOMCONTINENT</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>Récupération de CONTINENT.IDCONTINENT</t>
+  </si>
+  <si>
+    <t>Transtypage</t>
+  </si>
+  <si>
+    <t>Récupération de PAYS.IDPAYS</t>
+  </si>
+  <si>
+    <t>Contrainte d'intégrité</t>
+  </si>
+  <si>
+    <t>PAYS.NOMPAYS</t>
+  </si>
+  <si>
+    <t>PAYS.IDCONTINENTPAYS</t>
+  </si>
+  <si>
+    <t>Le continent existe déjà.</t>
+  </si>
+  <si>
+    <t>Le pays existe déjà.</t>
+  </si>
+  <si>
+    <t>Majuscule en début de mot, remplacement des "_" par " ".</t>
+  </si>
+  <si>
+    <t>Le pays appartient au continent renseigné sur la même ligne.</t>
+  </si>
   <si>
     <t>VILLE.IDREGIONCOMMERCIALEVILLE</t>
   </si>
@@ -74,10 +833,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Code erreur du programme JAVA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ce n'est pas un nombre / entier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,641 +943,13 @@
   </si>
   <si>
     <t>Population</t>
-  </si>
-  <si>
-    <t>Vérification, via internet, que le nombre est plausible.</t>
-  </si>
-  <si>
-    <t>Taux_Ouvri</t>
-  </si>
-  <si>
-    <t>VILLE.TAUXOUVRIERVILLE</t>
-  </si>
-  <si>
-    <t>VILLE.POPULATIONVILLE</t>
-  </si>
-  <si>
-    <t>Le champ VILLE.TAUXOUVRIERVILLE reste vide.</t>
-  </si>
-  <si>
-    <t>Moins_25an, Les_25_35a, Plus_35ans</t>
-  </si>
-  <si>
-    <t>L'addition des trois champs doit donner 100.</t>
-  </si>
-  <si>
-    <t>L'addition ne donne pas 100.</t>
-  </si>
-  <si>
-    <t>Aucun des trois champs ne peut être rempli.</t>
-  </si>
-  <si>
-    <t>VILLE.PLUS35ANSVILLE</t>
-  </si>
-  <si>
-    <t>Le champ VILLE.PLUS35ANSVILLE reste vide.</t>
-  </si>
-  <si>
-    <t>Continent</t>
-  </si>
-  <si>
-    <t>Champ(s) Excel</t>
-  </si>
-  <si>
-    <t>A modifier si le nom dans la base n'est pas correct</t>
-  </si>
-  <si>
-    <t>REGIONCOMMERCIALE.IDPAYSREGIONCOMMERCIALE</t>
-  </si>
-  <si>
-    <t>REGIONCOMMERCIALE.NOMREGIONCOMMERCIALE, REGIONCOMMERCIALE.NOMPAYSREGIONCOMMERCIALE</t>
-  </si>
-  <si>
-    <t>Vérification que le champ ne contient que des chiffres et ''.''ou '',''.</t>
-  </si>
-  <si>
-    <t>Ce n'est pas un nombre</t>
-  </si>
-  <si>
-    <t>REGION.NOMREGIONCOMMERCIALE</t>
-  </si>
-  <si>
-    <t>Publicité</t>
-  </si>
-  <si>
-    <t>MAGASIN.PUBLICITEMAGASIN</t>
-  </si>
-  <si>
-    <t>Nb_Caisses</t>
-  </si>
-  <si>
-    <t>MAGASIN.NBCAISSEMAGASIN</t>
-  </si>
-  <si>
-    <t>Pays</t>
-  </si>
-  <si>
-    <t>Région</t>
-  </si>
-  <si>
-    <t>MAGASIN.IDENSEIGNEMAGASIN</t>
-  </si>
-  <si>
-    <t>Le magasin a une ville qui est celle renseignée sur la même ligne.</t>
-  </si>
-  <si>
-    <t>MAGASIN.IDVILLEMAGASIN</t>
-  </si>
-  <si>
-    <t>La ville n'existe pas.</t>
-  </si>
-  <si>
-    <t>L'enseigne n'existe pas.</t>
-  </si>
-  <si>
-    <t>Cas de succès</t>
-  </si>
-  <si>
-    <t>Le nombre est négatif.</t>
-  </si>
-  <si>
-    <t>Le champ reste vide ou est mis à 0 ?</t>
-  </si>
-  <si>
-    <t>Le nombre doit être positif et entier.</t>
-  </si>
-  <si>
-    <t>Le nombre est négatif ou n'est pas entier.</t>
-  </si>
-  <si>
-    <t>Le champ reste vide.</t>
-  </si>
-  <si>
-    <t>Insertion du continent.</t>
-  </si>
-  <si>
-    <t>Insertion du pays.</t>
-  </si>
-  <si>
-    <t>Insertion de la ville.</t>
-  </si>
-  <si>
-    <t>Insertion de la région.</t>
-  </si>
-  <si>
-    <t>Insertion dans VILLE.POPULATIONVILLE.</t>
-  </si>
-  <si>
-    <t>Type de traitement</t>
-  </si>
-  <si>
-    <t>Explication du traitement</t>
-  </si>
-  <si>
-    <t>Champ(s) dans la base de données</t>
-  </si>
-  <si>
-    <t>Cas d'erreur</t>
-  </si>
-  <si>
-    <t>Solution</t>
-  </si>
-  <si>
-    <t>CONTINENT.NOMCONTINENT</t>
-  </si>
-  <si>
-    <t>Commentaire</t>
-  </si>
-  <si>
-    <t>Récupération de CONTINENT.IDCONTINENT</t>
-  </si>
-  <si>
-    <t>Transtypage</t>
-  </si>
-  <si>
-    <t>Récupération de PAYS.IDPAYS</t>
-  </si>
-  <si>
-    <t>Contrainte d'intégrité</t>
-  </si>
-  <si>
-    <t>PAYS.NOMPAYS</t>
-  </si>
-  <si>
-    <t>PAYS.IDCONTINENTPAYS</t>
-  </si>
-  <si>
-    <t>Le continent existe déjà.</t>
-  </si>
-  <si>
-    <t>Le pays existe déjà.</t>
-  </si>
-  <si>
-    <t>Majuscule en début de mot, remplacement des "_" par " ".</t>
-  </si>
-  <si>
-    <t>Le pays appartient au continent renseigné sur la même ligne.</t>
-  </si>
-  <si>
-    <t>Insertion dans VILLE.PLUS35ANSVILLE.</t>
-  </si>
-  <si>
-    <t>Insertion de l'enseigne.</t>
-  </si>
-  <si>
-    <t>Insertion de la devise.</t>
-  </si>
-  <si>
-    <t>Insertion du magasin.</t>
-  </si>
-  <si>
-    <t>Chaque erreur donne lieu a une inscription dans le journal de log.</t>
-  </si>
-  <si>
-    <t>Légende</t>
-  </si>
-  <si>
-    <t>Récupérer l'identifiant de la ville pour récupérer l'identifiant du magasin</t>
-  </si>
-  <si>
-    <t>La ville n'existe pas, il n'y a pas de magasin dans cette ville</t>
-  </si>
-  <si>
-    <t>Inscription dans le fichier de log de l'erreur. L'objectif de ventes n'est pas inséré.</t>
-  </si>
-  <si>
-    <t>EFPFR002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EFPFO004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EFPFR004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>En dehors de la fourchette</t>
-  </si>
-  <si>
-    <t>Insertion du CA réel en question</t>
-  </si>
-  <si>
-    <t>VILLE.NOMVILLE,VILLE.IDVILLE, MAGASIN.IDMAGASIN</t>
-  </si>
-  <si>
-    <t>Récupération de MAGASIN.IDMAGASIN</t>
-  </si>
-  <si>
-    <t>FAMILLEARTICLE.NOMFAMILLEARTCILE, FAMILLEARTICLE.IDFAMILLEARTCILE,</t>
-  </si>
-  <si>
-    <t>La famille article  n'existe pas</t>
-  </si>
-  <si>
-    <t>Récupération de FAMILLEARTICLE.IDFAMILLEARTCILE</t>
-  </si>
-  <si>
-    <t>FAITS.IDMOIS, FAITS.IDMAGASIN, FAITS.IDFAMILLEARTICLE</t>
-  </si>
-  <si>
-    <t>Récupération de l'identifiant du fait : FAITS.IDMOIS, FAITS.IDMAGASIN, FAITS.IDFAMILLEARTICLE</t>
-  </si>
-  <si>
-    <t>FAITS.VENTESOBJECTIFFAITS</t>
-  </si>
-  <si>
-    <t>Insertion de l'objectif de vente en question</t>
-  </si>
-  <si>
-    <t>FAITS.VENTESREELFAITS</t>
-  </si>
-  <si>
-    <t>Inscription dans le fichier de log de l'erreur. Le chiffre réel de ventes n'est pas inséré.</t>
-  </si>
-  <si>
-    <t>Insertion de la vente réelle en question</t>
-  </si>
-  <si>
-    <t>FAITS.CAOBJECTIFFAITS</t>
-  </si>
-  <si>
-    <t>Le champ VILLE.POPULATIONVILLE reste vide.</t>
-  </si>
-  <si>
-    <t>Taux_Cadre</t>
-  </si>
-  <si>
-    <t>Le nombre doit être compris entre 0 et 100.</t>
-  </si>
-  <si>
-    <t>VILLE.TAUXCADREVILLE</t>
-  </si>
-  <si>
-    <t>Le champ VILLE.TAUXCADREVILLE reste vide.</t>
-  </si>
-  <si>
-    <t>Taux_Inact</t>
-  </si>
-  <si>
-    <t>Moins_25an</t>
-  </si>
-  <si>
-    <t>VILLE.TAUXINACTIFVILLE</t>
-  </si>
-  <si>
-    <t>Le champ VILLE.TAUXINACTIFVILLE reste vide.</t>
-  </si>
-  <si>
-    <t>VILLE.MOINS25ANSVILLE</t>
-  </si>
-  <si>
-    <t>Le champ VILLE.MOINS25ANSVILLE reste vide.</t>
-  </si>
-  <si>
-    <t>Les_25_35a</t>
-  </si>
-  <si>
-    <t>VILLE.2535ANSVILLE</t>
-  </si>
-  <si>
-    <t>Le champ VILLE.2535ANSVILLE reste vide.</t>
-  </si>
-  <si>
-    <t>Plus_35ans</t>
-  </si>
-  <si>
-    <t>Demander la vérification du chiffre de vente objectif si = 0 ou supérieur au maximum défini</t>
-  </si>
-  <si>
-    <t>Demander la vérification du chiffre réel de vente si =0 ou supérieur au maximum défini</t>
-  </si>
-  <si>
-    <t>Demander la vérification du chiffre réel de vente si = 0 ou supérieur au maximum défini</t>
-  </si>
-  <si>
-    <t>&gt; 50% du CA objectif &lt;mois&gt; magnetoscope, magasin</t>
-  </si>
-  <si>
-    <t>&gt; 50% CA réel &lt;mois&gt;, magnétoscope, magasin</t>
-  </si>
-  <si>
-    <t>Marge &lt;= 50% du chiffre d'affaires objectif du &lt;mois&gt; , magnétoscope, magasin</t>
-  </si>
-  <si>
-    <t>Demander la vérification de la marge brute réelle</t>
-  </si>
-  <si>
-    <t>Demander la vérification de la marge brute objective</t>
-  </si>
-  <si>
-    <t>MAGASIN.IDENSEIGNEMAGASIN, MAGASIN.IDVILLEMAGASIN</t>
-  </si>
-  <si>
-    <t>Referentiel</t>
-  </si>
-  <si>
-    <t>Inscription dans le fichier de log de l'erreur. La MB réelle n'est pas insérée.</t>
-  </si>
-  <si>
-    <t>Code Erreur</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nom de la Feuille</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mois</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Récupérer le numéro du mois</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inscription dans le fichier de log de l'erreur. Le chiffre d'affaires réel de ventes n'est pas inséré.</t>
-  </si>
-  <si>
-    <t>FAITS.CAREELFAITS</t>
-  </si>
-  <si>
-    <t>Inscription dans le fichier de log de l'erreur. L'objectif de CA n'est pas inséré.</t>
-  </si>
-  <si>
-    <t>Insertion de l'objectif CA en question</t>
-  </si>
-  <si>
-    <t>Inscription dans le fichier de log de l'erreur. L'objectif de MB n'est pas inséré.</t>
-  </si>
-  <si>
-    <t>Insertion du MB réel en question</t>
-  </si>
-  <si>
-    <t>Inscription dans le fichier de log de l'erreur. La marge brute réelle n'est pas insérée.</t>
-  </si>
-  <si>
-    <t>Insertion de l'objectif MB en question</t>
-  </si>
-  <si>
-    <t>FAITS.MARGEOBJECTIFFAITS</t>
-  </si>
-  <si>
-    <t>FAITS.MARGEREELFAITS</t>
-  </si>
-  <si>
-    <t>La région appartient au pays renseigné sur la même ligne.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entre ]0;1000] </t>
-  </si>
-  <si>
-    <t>Récupérer l'identifiant de la famille d'article pour Magnetoscope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entre ]0;500] </t>
-  </si>
-  <si>
-    <t>Insertion dans VILLE.TAUXOUVRIERVILLE.</t>
-  </si>
-  <si>
-    <t>Insertion dans VILLETAUXCADREVILLE.</t>
-  </si>
-  <si>
-    <t>Insertion dans VILLE.MOINS25ANSVILLE.</t>
-  </si>
-  <si>
-    <t>Insertion dans VILLE.2535ANSVILLE.</t>
-  </si>
-  <si>
-    <t>Inscription dans le fichier de log de l'erreur. Arrêt du traitement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Insertion Objectif : Il n'y a pas les 12 mois.                                                           Les mois ne sont pas par ordre croissant Mois ne sont pas entre [1;12]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Récupérer l'identifiant de la famille d'article pour Hifi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R_MB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hifi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EFPS001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EFPS002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EFPS004</t>
-  </si>
-  <si>
-    <t>EFPFO001</t>
-  </si>
-  <si>
-    <t>EFPFO002</t>
-  </si>
-  <si>
-    <t>EFPFO001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EFPFR001</t>
-  </si>
-  <si>
-    <t>EFPFR001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EFPFR002</t>
-  </si>
-  <si>
-    <t>EFPFO002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EFPFR001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Création implicite du continent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cas d'erreur / Exception</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O_VE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R_VE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O_CA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O_MB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R_CA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R_MB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magnetoscope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inscription dans le fichier de log de l'erreur. Arrêt du traitement</t>
-  </si>
-  <si>
-    <t>Inscription dans le fichier de log de l'erreur. Arrêt du traitement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inscription dans le fichier de log de l'erreur. Arrêt du traitement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Insertion objectif : Créer le fait pour ce mois, cet article et ce magasin                                                                                      Insertion Réel : Arrêt du traitement                               </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Récupérer l'identifiant de la famille d'article pour Four</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R_VE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Four</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O_MB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Entre ]0;2000] </t>
-  </si>
-  <si>
-    <t>Entre [-10;10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entre [-10;10] </t>
-  </si>
-  <si>
-    <t>Demande de confirmation pour l'objectif CA = 0 ou supérieur au maximum défini</t>
-  </si>
-  <si>
-    <t>Demande de confirmation pour le CA réel = 0 ou supérieur au maximum défini</t>
-  </si>
-  <si>
-    <t>Demander la vérification du chiffre pour l'objectif de vente = 0 ou supérieur au maximum défini</t>
-  </si>
-  <si>
-    <t>Demander la vérification du chiffre pour la vente réelle = 0 ou supérieur au maximum défini</t>
-  </si>
-  <si>
-    <t>Code Erreur</t>
-  </si>
-  <si>
-    <t>EFPS001</t>
-  </si>
-  <si>
-    <t>EFPS002</t>
-  </si>
-  <si>
-    <t>EFPS003</t>
-  </si>
-  <si>
-    <t>EFPF0001</t>
-  </si>
-  <si>
-    <t>EFPF0002</t>
-  </si>
-  <si>
-    <t>EFPR001</t>
-  </si>
-  <si>
-    <t>EFPO002</t>
-  </si>
-  <si>
-    <t>EFPO001</t>
-  </si>
-  <si>
-    <t>EFPFO004</t>
-  </si>
-  <si>
-    <t>EFPFR004</t>
-  </si>
-  <si>
-    <t>EFPF002</t>
-  </si>
-  <si>
-    <t>EIVID001</t>
-  </si>
-  <si>
-    <t>EIVID002</t>
-  </si>
-  <si>
-    <t>EIMAD004</t>
-  </si>
-  <si>
-    <t>EIVID004</t>
-  </si>
-  <si>
-    <t>Entre [0;100]</t>
-  </si>
-  <si>
-    <t>EIVID005</t>
-  </si>
-  <si>
-    <t>Le magasin a une enseigne qui est celle renseignée sur la même ligne.</t>
-  </si>
-  <si>
-    <t>Enseigne</t>
-  </si>
-  <si>
-    <t>L'association ville et enseigne forme un magasin</t>
-  </si>
-  <si>
-    <t>EIMS001</t>
-  </si>
-  <si>
-    <t>Le magasin n'existe pas</t>
-  </si>
-  <si>
-    <t>EIVS001</t>
-  </si>
-  <si>
-    <t>Si Ajout : Le magasin est inséré</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -860,8 +987,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -883,6 +1015,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,7 +1155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1152,62 +1290,120 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1223,9 +1419,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1234,72 +1427,48 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,13 +1799,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="14"/>
@@ -1653,7 +1822,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="23">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1673,7 +1842,7 @@
     <row r="2" spans="1:23">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C2" s="4"/>
       <c r="F2" s="4"/>
@@ -1696,12 +1865,12 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="3"/>
-      <c r="B3" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="88"/>
+      <c r="B3" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="67"/>
       <c r="F3" s="3" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1746,31 +1915,31 @@
     </row>
     <row r="5" spans="1:23" s="9" customFormat="1" ht="18.75">
       <c r="A5" s="6" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1789,29 +1958,29 @@
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1">
       <c r="A6" s="11" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>86</v>
+        <v>203</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -1829,26 +1998,26 @@
       <c r="W6" s="10"/>
     </row>
     <row r="7" spans="1:23" s="15" customFormat="1">
-      <c r="A7" s="76" t="s">
-        <v>73</v>
+      <c r="A7" s="74" t="s">
+        <v>190</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="84" t="s">
-        <v>87</v>
+      <c r="H7" s="68" t="s">
+        <v>204</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -1866,24 +2035,24 @@
       <c r="W7" s="10"/>
     </row>
     <row r="8" spans="1:23" s="15" customFormat="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="84" t="s">
-        <v>101</v>
+      <c r="A8" s="75"/>
+      <c r="B8" s="68" t="s">
+        <v>218</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>107</v>
+        <v>224</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14" t="s">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="H8" s="89"/>
+        <v>59</v>
+      </c>
+      <c r="H8" s="70"/>
       <c r="I8" s="14"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -1901,22 +2070,22 @@
       <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" s="15" customFormat="1">
-      <c r="A9" s="78"/>
-      <c r="B9" s="85"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="14" t="s">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>28</v>
+        <v>252</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14" t="s">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="85"/>
+        <v>246</v>
+      </c>
+      <c r="H9" s="69"/>
       <c r="I9" s="14"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -1934,26 +2103,26 @@
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A10" s="81" t="s">
-        <v>74</v>
+      <c r="A10" s="84" t="s">
+        <v>191</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="90" t="s">
-        <v>89</v>
+      <c r="H10" s="71" t="s">
+        <v>206</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>25</v>
+        <v>249</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -1971,24 +2140,24 @@
       <c r="W10" s="16"/>
     </row>
     <row r="11" spans="1:23" s="15" customFormat="1">
-      <c r="A11" s="82"/>
-      <c r="B11" s="86" t="s">
-        <v>101</v>
+      <c r="A11" s="85"/>
+      <c r="B11" s="82" t="s">
+        <v>218</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>24</v>
+        <v>248</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="91"/>
+        <v>235</v>
+      </c>
+      <c r="H11" s="72"/>
       <c r="I11" s="12"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -2006,22 +2175,22 @@
       <c r="W11" s="10"/>
     </row>
     <row r="12" spans="1:23" s="15" customFormat="1" ht="28">
-      <c r="A12" s="83"/>
-      <c r="B12" s="87"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="12" t="s">
-        <v>29</v>
+        <v>253</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="17" t="s">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="92"/>
+        <v>250</v>
+      </c>
+      <c r="H12" s="73"/>
       <c r="I12" s="12"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -2039,26 +2208,26 @@
       <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:23" s="15" customFormat="1">
-      <c r="A13" s="76" t="s">
-        <v>8</v>
+      <c r="A13" s="74" t="s">
+        <v>233</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>31</v>
+        <v>255</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="84" t="s">
-        <v>88</v>
+      <c r="H13" s="68" t="s">
+        <v>205</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -2076,24 +2245,24 @@
       <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:23" s="15" customFormat="1">
-      <c r="A14" s="77"/>
-      <c r="B14" s="84" t="s">
-        <v>101</v>
+      <c r="A14" s="75"/>
+      <c r="B14" s="68" t="s">
+        <v>218</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="89"/>
+        <v>234</v>
+      </c>
+      <c r="H14" s="70"/>
       <c r="I14" s="14"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -2111,24 +2280,24 @@
       <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:23" s="15" customFormat="1">
-      <c r="A15" s="78"/>
-      <c r="B15" s="85"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="14" t="s">
-        <v>39</v>
+        <v>263</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>246</v>
+        <v>90</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>33</v>
+        <v>257</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="85"/>
+        <v>258</v>
+      </c>
+      <c r="H15" s="69"/>
       <c r="I15" s="14"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -2146,26 +2315,26 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:23" s="15" customFormat="1" ht="28">
-      <c r="A16" s="72" t="s">
-        <v>242</v>
+      <c r="A16" s="77" t="s">
+        <v>86</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>36</v>
+        <v>260</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>37</v>
+        <v>261</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="86" t="s">
-        <v>109</v>
+      <c r="H16" s="82" t="s">
+        <v>128</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -2183,24 +2352,24 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="1:23" s="15" customFormat="1">
-      <c r="A17" s="73"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="12" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>37</v>
+        <v>261</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12" t="s">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="87"/>
+        <v>267</v>
+      </c>
+      <c r="H17" s="83"/>
       <c r="I17" s="12"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -2218,25 +2387,25 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="1:23" s="15" customFormat="1" ht="28">
-      <c r="A18" s="93"/>
-      <c r="B18" s="69" t="s">
-        <v>101</v>
+      <c r="A18" s="79"/>
+      <c r="B18" s="89" t="s">
+        <v>218</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>241</v>
+        <v>85</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="93" t="s">
-        <v>111</v>
+        <v>236</v>
+      </c>
+      <c r="H18" s="79" t="s">
+        <v>130</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="10"/>
@@ -2255,24 +2424,24 @@
       <c r="W18" s="10"/>
     </row>
     <row r="19" spans="1:23" s="15" customFormat="1">
-      <c r="A19" s="94"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="F19" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="94"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="H19" s="80"/>
       <c r="I19" s="30"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -2290,24 +2459,24 @@
       <c r="W19" s="10"/>
     </row>
     <row r="20" spans="1:23" s="15" customFormat="1">
-      <c r="A20" s="95"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="F20" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="G20" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="H20" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="81"/>
       <c r="I20" s="30"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -2325,29 +2494,29 @@
       <c r="W20" s="10"/>
     </row>
     <row r="21" spans="1:23" s="24" customFormat="1" ht="28">
-      <c r="A21" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>18</v>
+      <c r="A21" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>242</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H21" s="74" t="s">
-        <v>90</v>
+        <v>151</v>
+      </c>
+      <c r="H21" s="93" t="s">
+        <v>207</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="20"/>
@@ -2366,26 +2535,26 @@
       <c r="W21" s="20"/>
     </row>
     <row r="22" spans="1:23" s="15" customFormat="1">
-      <c r="A22" s="80"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="12" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>48</v>
+        <v>272</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="75"/>
+        <v>151</v>
+      </c>
+      <c r="H22" s="94"/>
       <c r="I22" s="12"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -2403,31 +2572,31 @@
       <c r="W22" s="10"/>
     </row>
     <row r="23" spans="1:23" s="15" customFormat="1" ht="28">
-      <c r="A23" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>66</v>
+      <c r="A23" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>183</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="I23" s="58"/>
+        <v>169</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" s="53"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -2444,26 +2613,26 @@
       <c r="W23" s="10"/>
     </row>
     <row r="24" spans="1:23" s="15" customFormat="1">
-      <c r="A24" s="78"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="14" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>239</v>
+        <v>84</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="68"/>
+        <v>171</v>
+      </c>
+      <c r="H24" s="88"/>
       <c r="I24" s="14"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -2481,29 +2650,29 @@
       <c r="W24" s="10"/>
     </row>
     <row r="25" spans="1:23" s="24" customFormat="1" ht="28">
-      <c r="A25" s="72" t="s">
-        <v>136</v>
+      <c r="A25" s="77" t="s">
+        <v>152</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="H25" s="74" t="s">
-        <v>180</v>
+        <v>154</v>
+      </c>
+      <c r="H25" s="93" t="s">
+        <v>119</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="20"/>
@@ -2522,320 +2691,320 @@
       <c r="W25" s="20"/>
     </row>
     <row r="26" spans="1:23" s="15" customFormat="1">
-      <c r="A26" s="80"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="12" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>239</v>
+        <v>84</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="H26" s="75"/>
+        <v>154</v>
+      </c>
+      <c r="H26" s="94"/>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:23" s="15" customFormat="1" ht="28">
-      <c r="A27" s="76" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>66</v>
+      <c r="A27" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>183</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="H27" s="60"/>
+        <v>158</v>
+      </c>
+      <c r="H27" s="55"/>
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:23" s="15" customFormat="1">
-      <c r="A28" s="78"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="14" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>239</v>
+        <v>84</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="H28" s="66"/>
+        <v>158</v>
+      </c>
+      <c r="H28" s="61"/>
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:23" s="15" customFormat="1" ht="28">
       <c r="A29" s="25" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="12" t="s">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="H29" s="35"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:23" s="15" customFormat="1" ht="28">
-      <c r="A30" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="58" t="s">
-        <v>66</v>
+      <c r="A30" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>183</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="H30" s="67" t="s">
-        <v>181</v>
+        <v>184</v>
+      </c>
+      <c r="G30" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" s="87" t="s">
+        <v>120</v>
       </c>
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:23" s="15" customFormat="1">
-      <c r="A31" s="78"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="14" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>239</v>
+        <v>28</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="H31" s="68"/>
+        <v>160</v>
+      </c>
+      <c r="H31" s="88"/>
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:23" s="24" customFormat="1" ht="28">
-      <c r="A32" s="72" t="s">
-        <v>146</v>
+      <c r="A32" s="77" t="s">
+        <v>161</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="H32" s="74" t="s">
-        <v>182</v>
+        <v>163</v>
+      </c>
+      <c r="H32" s="93" t="s">
+        <v>121</v>
       </c>
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" s="15" customFormat="1">
-      <c r="A33" s="80"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="12" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="H33" s="75"/>
+        <v>163</v>
+      </c>
+      <c r="H33" s="94"/>
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" s="15" customFormat="1" ht="28">
-      <c r="A34" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>66</v>
+      <c r="A34" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>183</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="F34" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="I34" s="58"/>
+        <v>176</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="H34" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34" s="53"/>
     </row>
     <row r="35" spans="1:9" s="15" customFormat="1">
-      <c r="A35" s="78"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="14" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="68"/>
+        <v>177</v>
+      </c>
+      <c r="H35" s="88"/>
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" s="27" customFormat="1" ht="42">
       <c r="A36" s="11" t="s">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="34" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>47</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="27" customFormat="1">
-      <c r="A37" s="62" t="s">
-        <v>69</v>
+      <c r="A37" s="57" t="s">
+        <v>186</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>3</v>
+        <v>228</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>237</v>
+        <v>26</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37" s="64"/>
+        <v>199</v>
+      </c>
+      <c r="H37" s="59"/>
       <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" s="15" customFormat="1" ht="28">
-      <c r="A38" s="63" t="s">
-        <v>71</v>
+      <c r="A38" s="58" t="s">
+        <v>188</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>237</v>
+        <v>58</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H38" s="65"/>
+        <v>202</v>
+      </c>
+      <c r="H38" s="60"/>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9">
@@ -2860,14 +3029,118 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
+    <row r="41" spans="1:9" ht="18">
+      <c r="A41" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="108">
+        <v>1</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="106"/>
+      <c r="B43" s="109">
+        <v>2</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="106"/>
+      <c r="B44" s="109">
+        <v>3</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="11">
+        <v>1</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="102"/>
+      <c r="B46" s="98">
+        <v>2</v>
+      </c>
+      <c r="C46" s="104" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="102"/>
+      <c r="B47" s="98">
+        <v>3</v>
+      </c>
+      <c r="C47" s="104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="102"/>
+      <c r="B48" s="98">
+        <v>4</v>
+      </c>
+      <c r="C48" s="104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="102"/>
+      <c r="B49" s="98">
+        <v>5</v>
+      </c>
+      <c r="C49" s="104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="102"/>
+      <c r="B50" s="98">
+        <v>6</v>
+      </c>
+      <c r="C50" s="104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="103"/>
+      <c r="B51" s="98">
+        <v>7</v>
+      </c>
+      <c r="C51" s="104" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <mergeCells count="28">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H15"/>
+  <mergeCells count="30">
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
@@ -2884,13 +3157,11 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2904,13 +3175,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="14"/>
@@ -2927,7 +3198,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="23">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -2968,10 +3239,10 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="3"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
       <c r="F3" s="3" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -3016,31 +3287,31 @@
     </row>
     <row r="5" spans="1:23" s="9" customFormat="1" ht="18.75">
       <c r="A5" s="6" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -3058,56 +3329,56 @@
       <c r="W5" s="8"/>
     </row>
     <row r="6" spans="1:23" s="10" customFormat="1" ht="28">
-      <c r="A6" s="53" t="s">
-        <v>162</v>
+      <c r="A6" s="48" t="s">
+        <v>101</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>188</v>
+        <v>140</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>42</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A7" s="11" t="s">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>189</v>
+        <v>138</v>
+      </c>
+      <c r="E7" s="98" t="s">
+        <v>11</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="10"/>
@@ -3126,22 +3397,22 @@
       <c r="W7" s="10"/>
     </row>
     <row r="8" spans="1:23" s="10" customFormat="1" ht="56">
-      <c r="A8" s="53" t="s">
-        <v>163</v>
+      <c r="A8" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="D8" s="21"/>
-      <c r="E8" s="55" t="s">
-        <v>13</v>
+      <c r="E8" s="50" t="s">
+        <v>12</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="21"/>
@@ -3149,25 +3420,25 @@
     <row r="9" spans="1:23" s="15" customFormat="1" ht="42">
       <c r="A9" s="40"/>
       <c r="B9" s="12" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="10"/>
@@ -3186,29 +3457,29 @@
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" s="15" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A10" s="96" t="s">
-        <v>201</v>
+      <c r="A10" s="95" t="s">
+        <v>61</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="96" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>193</v>
+        <v>230</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>32</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="96" t="s">
-        <v>130</v>
+        <v>238</v>
+      </c>
+      <c r="G10" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="95" t="s">
+        <v>146</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="10"/>
@@ -3227,24 +3498,24 @@
       <c r="W10" s="10"/>
     </row>
     <row r="11" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A11" s="97"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="39" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="51" t="s">
-        <v>192</v>
+        <v>117</v>
+      </c>
+      <c r="D11" s="96"/>
+      <c r="E11" s="65" t="s">
+        <v>31</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
+        <v>136</v>
+      </c>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
       <c r="I11" s="21" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -3262,29 +3533,29 @@
       <c r="W11" s="16"/>
     </row>
     <row r="12" spans="1:23" s="15" customFormat="1">
-      <c r="A12" s="81" t="s">
-        <v>202</v>
+      <c r="A12" s="84" t="s">
+        <v>62</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>195</v>
+        <v>229</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>34</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="81" t="s">
-        <v>133</v>
+        <v>240</v>
+      </c>
+      <c r="G12" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="84" t="s">
+        <v>149</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="10"/>
@@ -3303,24 +3574,24 @@
       <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:23" s="15" customFormat="1" ht="28">
-      <c r="A13" s="82"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="17" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="48" t="s">
-        <v>196</v>
+        <v>117</v>
+      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="63" t="s">
+        <v>33</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
+        <v>136</v>
+      </c>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="12" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -3330,29 +3601,29 @@
       <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:23" s="15" customFormat="1" ht="28">
-      <c r="A14" s="96" t="s">
-        <v>203</v>
+      <c r="A14" s="95" t="s">
+        <v>63</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>193</v>
+        <v>183</v>
+      </c>
+      <c r="D14" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="H14" s="96" t="s">
-        <v>168</v>
+        <v>106</v>
+      </c>
+      <c r="H14" s="95" t="s">
+        <v>107</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="10"/>
@@ -3363,26 +3634,26 @@
       <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:23" s="15" customFormat="1" ht="28">
-      <c r="A15" s="97"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="39" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="56" t="s">
-        <v>197</v>
+        <v>115</v>
+      </c>
+      <c r="D15" s="96"/>
+      <c r="E15" s="51" t="s">
+        <v>36</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="H15" s="97"/>
+        <v>106</v>
+      </c>
+      <c r="H15" s="96"/>
       <c r="I15" s="21" t="s">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -3392,29 +3663,29 @@
       <c r="O15" s="10"/>
     </row>
     <row r="16" spans="1:23" s="15" customFormat="1" ht="28">
-      <c r="A16" s="81" t="s">
-        <v>205</v>
+      <c r="A16" s="84" t="s">
+        <v>65</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>198</v>
+        <v>183</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>37</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="H16" s="72" t="s">
-        <v>121</v>
+        <v>104</v>
+      </c>
+      <c r="H16" s="77" t="s">
+        <v>137</v>
       </c>
       <c r="I16" s="41"/>
       <c r="J16" s="10"/>
@@ -3425,26 +3696,26 @@
       <c r="O16" s="10"/>
     </row>
     <row r="17" spans="1:15" s="15" customFormat="1" ht="28">
-      <c r="A17" s="82"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="17" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="54" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="D17" s="85"/>
+      <c r="E17" s="49" t="s">
+        <v>38</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="79"/>
+        <v>104</v>
+      </c>
+      <c r="H17" s="97"/>
       <c r="I17" s="41" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -3454,29 +3725,29 @@
       <c r="O17" s="10"/>
     </row>
     <row r="18" spans="1:15" s="15" customFormat="1" ht="28">
-      <c r="A18" s="96" t="s">
-        <v>204</v>
+      <c r="A18" s="95" t="s">
+        <v>64</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="96" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+      <c r="D18" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>39</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="H18" s="96" t="s">
-        <v>172</v>
+        <v>108</v>
+      </c>
+      <c r="H18" s="95" t="s">
+        <v>111</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="10"/>
@@ -3487,24 +3758,24 @@
       <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:15" s="15" customFormat="1" ht="28" customHeight="1">
-      <c r="A19" s="97"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="21" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="56" t="s">
-        <v>118</v>
+        <v>94</v>
+      </c>
+      <c r="D19" s="96"/>
+      <c r="E19" s="51" t="s">
+        <v>47</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="93" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="97"/>
+        <v>92</v>
+      </c>
+      <c r="G19" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="96"/>
       <c r="I19" s="44"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -3514,24 +3785,24 @@
       <c r="O19" s="10"/>
     </row>
     <row r="20" spans="1:15" s="24" customFormat="1">
-      <c r="A20" s="97"/>
+      <c r="A20" s="96"/>
       <c r="B20" s="39" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="52" t="s">
-        <v>197</v>
+        <v>77</v>
+      </c>
+      <c r="D20" s="96"/>
+      <c r="E20" s="66" t="s">
+        <v>36</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="95"/>
-      <c r="H20" s="97"/>
+        <v>136</v>
+      </c>
+      <c r="G20" s="81"/>
+      <c r="H20" s="96"/>
       <c r="I20" s="21" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -3541,72 +3812,72 @@
       <c r="O20" s="20"/>
     </row>
     <row r="21" spans="1:15" s="15" customFormat="1" ht="28">
-      <c r="A21" s="81" t="s">
-        <v>206</v>
+      <c r="A21" s="84" t="s">
+        <v>66</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>174</v>
+        <v>183</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>113</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="G21" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="H21" s="72" t="s">
-        <v>170</v>
+        <v>110</v>
+      </c>
+      <c r="H21" s="77" t="s">
+        <v>109</v>
       </c>
       <c r="I21" s="44"/>
     </row>
     <row r="22" spans="1:15" s="15" customFormat="1" ht="28" customHeight="1">
-      <c r="A22" s="82"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="12" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="79"/>
+        <v>94</v>
+      </c>
+      <c r="D22" s="97"/>
       <c r="E22" s="11" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="H22" s="79"/>
+        <v>93</v>
+      </c>
+      <c r="G22" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="97"/>
       <c r="I22" s="41"/>
     </row>
     <row r="23" spans="1:15" s="15" customFormat="1">
-      <c r="A23" s="83"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="17" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="D23" s="80"/>
-      <c r="E23" s="50" t="s">
-        <v>117</v>
+        <v>78</v>
+      </c>
+      <c r="D23" s="78"/>
+      <c r="E23" s="62" t="s">
+        <v>38</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="79"/>
+        <v>136</v>
+      </c>
+      <c r="G23" s="86"/>
+      <c r="H23" s="97"/>
       <c r="I23" s="41" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="24" customFormat="1"/>
@@ -3614,16 +3885,70 @@
     <row r="26" spans="1:15" s="15" customFormat="1"/>
     <row r="27" spans="1:15" s="15" customFormat="1"/>
     <row r="28" spans="1:15" s="26" customFormat="1"/>
-    <row r="29" spans="1:15" s="15" customFormat="1"/>
-    <row r="30" spans="1:15" s="27" customFormat="1"/>
-    <row r="31" spans="1:15" s="27" customFormat="1"/>
-    <row r="32" spans="1:15" s="27" customFormat="1"/>
-    <row r="33" spans="1:9" s="15" customFormat="1"/>
-    <row r="34" spans="1:9" s="15" customFormat="1"/>
+    <row r="29" spans="1:15" s="15" customFormat="1" ht="18">
+      <c r="A29" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+    </row>
+    <row r="30" spans="1:15" s="27" customFormat="1">
+      <c r="A30" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="108">
+        <v>1</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="27" customFormat="1">
+      <c r="A31" s="106"/>
+      <c r="B31" s="109">
+        <v>2</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="27" customFormat="1">
+      <c r="A32" s="106"/>
+      <c r="B32" s="109">
+        <v>3</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="15" customFormat="1">
+      <c r="A33" s="107"/>
+      <c r="B33" s="109">
+        <v>4</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="15" customFormat="1">
+      <c r="A34" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="11">
+        <v>1</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="28"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="98">
+        <v>2</v>
+      </c>
+      <c r="C35" s="104" t="s">
+        <v>56</v>
+      </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -3632,9 +3957,13 @@
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="28"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="98">
+        <v>3</v>
+      </c>
+      <c r="C36" s="104" t="s">
+        <v>0</v>
+      </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -3642,13 +3971,61 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="17"/>
-    <row r="38" spans="1:9" ht="17"/>
-    <row r="39" spans="1:9" ht="17"/>
+    <row r="37" spans="1:9">
+      <c r="A37" s="102"/>
+      <c r="B37" s="98">
+        <v>4</v>
+      </c>
+      <c r="C37" s="104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="102"/>
+      <c r="B38" s="98">
+        <v>5</v>
+      </c>
+      <c r="C38" s="104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="102"/>
+      <c r="B39" s="98">
+        <v>6</v>
+      </c>
+      <c r="C39" s="104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="103"/>
+      <c r="B40" s="98">
+        <v>7</v>
+      </c>
+      <c r="C40" s="104" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <dataConsolidate/>
-  <mergeCells count="23">
+  <mergeCells count="25">
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="G12:G13"/>
@@ -3658,20 +4035,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="G19:G20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3685,10 +4048,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="14"/>
@@ -3705,7 +4068,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="23">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -3746,10 +4109,10 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="3"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
       <c r="F3" s="3" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -3794,31 +4157,31 @@
     </row>
     <row r="5" spans="1:23" s="9" customFormat="1" ht="18.75">
       <c r="A5" s="6" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -3836,29 +4199,29 @@
       <c r="W5" s="8"/>
     </row>
     <row r="6" spans="1:23" s="9" customFormat="1" ht="28">
-      <c r="A6" s="53" t="s">
-        <v>162</v>
+      <c r="A6" s="48" t="s">
+        <v>101</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>224</v>
+        <v>140</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>42</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="8"/>
@@ -3878,28 +4241,28 @@
     </row>
     <row r="7" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A7" s="11" t="s">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="D7" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>183</v>
-      </c>
       <c r="H7" s="34" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="10"/>
@@ -3918,22 +4281,22 @@
       <c r="W7" s="10"/>
     </row>
     <row r="8" spans="1:23" s="10" customFormat="1" ht="56">
-      <c r="A8" s="53" t="s">
-        <v>163</v>
+      <c r="A8" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="D8" s="21"/>
-      <c r="E8" s="55" t="s">
-        <v>226</v>
+      <c r="E8" s="50" t="s">
+        <v>12</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="21"/>
@@ -3941,25 +4304,25 @@
     <row r="9" spans="1:23" s="15" customFormat="1" ht="42">
       <c r="A9" s="40"/>
       <c r="B9" s="12" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>190</v>
+        <v>143</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="10"/>
@@ -3978,29 +4341,29 @@
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="96" t="s">
-        <v>201</v>
+      <c r="A10" s="95" t="s">
+        <v>61</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="96" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>227</v>
+        <v>230</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>43</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="96" t="s">
-        <v>130</v>
+        <v>239</v>
+      </c>
+      <c r="G10" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="95" t="s">
+        <v>146</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="10"/>
@@ -4019,24 +4382,24 @@
       <c r="W10" s="10"/>
     </row>
     <row r="11" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A11" s="97"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="39" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="56" t="s">
-        <v>228</v>
+        <v>115</v>
+      </c>
+      <c r="D11" s="96"/>
+      <c r="E11" s="51" t="s">
+        <v>51</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
+        <v>136</v>
+      </c>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
       <c r="I11" s="21" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -4054,29 +4417,29 @@
       <c r="W11" s="16"/>
     </row>
     <row r="12" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A12" s="81" t="s">
-        <v>213</v>
+      <c r="A12" s="84" t="s">
+        <v>73</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>194</v>
+        <v>230</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>43</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="81" t="s">
-        <v>133</v>
+        <v>239</v>
+      </c>
+      <c r="G12" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="84" t="s">
+        <v>149</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="16"/>
@@ -4095,24 +4458,24 @@
       <c r="W12" s="16"/>
     </row>
     <row r="13" spans="1:23" s="15" customFormat="1" ht="28">
-      <c r="A13" s="82"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="17" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="54" t="s">
-        <v>196</v>
+        <v>115</v>
+      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="49" t="s">
+        <v>33</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
+        <v>136</v>
+      </c>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="12" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -4130,29 +4493,29 @@
       <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:23" s="15" customFormat="1" ht="28">
-      <c r="A14" s="96" t="s">
-        <v>203</v>
+      <c r="A14" s="95" t="s">
+        <v>63</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>231</v>
+        <v>183</v>
+      </c>
+      <c r="D14" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>44</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="H14" s="96" t="s">
-        <v>168</v>
+        <v>106</v>
+      </c>
+      <c r="H14" s="95" t="s">
+        <v>107</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="10"/>
@@ -4163,26 +4526,26 @@
       <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:23" s="15" customFormat="1" ht="28">
-      <c r="A15" s="97"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="39" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="52" t="s">
-        <v>230</v>
+        <v>76</v>
+      </c>
+      <c r="D15" s="96"/>
+      <c r="E15" s="66" t="s">
+        <v>45</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="H15" s="97"/>
+        <v>106</v>
+      </c>
+      <c r="H15" s="96"/>
       <c r="I15" s="21" t="s">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -4192,29 +4555,29 @@
       <c r="O15" s="10"/>
     </row>
     <row r="16" spans="1:23" s="15" customFormat="1" ht="28">
-      <c r="A16" s="81" t="s">
-        <v>205</v>
+      <c r="A16" s="84" t="s">
+        <v>65</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>229</v>
+        <v>183</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="H16" s="72" t="s">
-        <v>121</v>
+        <v>104</v>
+      </c>
+      <c r="H16" s="77" t="s">
+        <v>137</v>
       </c>
       <c r="I16" s="41"/>
       <c r="J16" s="10"/>
@@ -4225,26 +4588,26 @@
       <c r="O16" s="10"/>
     </row>
     <row r="17" spans="1:15" s="15" customFormat="1" ht="28">
-      <c r="A17" s="82"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="17" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="49" t="s">
-        <v>196</v>
+        <v>76</v>
+      </c>
+      <c r="D17" s="85"/>
+      <c r="E17" s="64" t="s">
+        <v>33</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="79"/>
+        <v>104</v>
+      </c>
+      <c r="H17" s="97"/>
       <c r="I17" s="41" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -4254,29 +4617,29 @@
       <c r="O17" s="10"/>
     </row>
     <row r="18" spans="1:15" s="24" customFormat="1" ht="28">
-      <c r="A18" s="96" t="s">
-        <v>215</v>
+      <c r="A18" s="95" t="s">
+        <v>75</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="96" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+      <c r="D18" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>39</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="H18" s="96" t="s">
-        <v>172</v>
+        <v>108</v>
+      </c>
+      <c r="H18" s="95" t="s">
+        <v>111</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="20"/>
@@ -4287,24 +4650,24 @@
       <c r="O18" s="20"/>
     </row>
     <row r="19" spans="1:15" s="15" customFormat="1" ht="28">
-      <c r="A19" s="97"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="21" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="56" t="s">
-        <v>232</v>
+        <v>94</v>
+      </c>
+      <c r="D19" s="96"/>
+      <c r="E19" s="51" t="s">
+        <v>48</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="93" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="97"/>
+        <v>92</v>
+      </c>
+      <c r="G19" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="96"/>
       <c r="I19" s="44"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -4314,24 +4677,24 @@
       <c r="O19" s="10"/>
     </row>
     <row r="20" spans="1:15" s="15" customFormat="1">
-      <c r="A20" s="97"/>
+      <c r="A20" s="96"/>
       <c r="B20" s="39" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="52" t="s">
-        <v>192</v>
+        <v>77</v>
+      </c>
+      <c r="D20" s="96"/>
+      <c r="E20" s="66" t="s">
+        <v>30</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="95"/>
-      <c r="H20" s="97"/>
+        <v>136</v>
+      </c>
+      <c r="G20" s="81"/>
+      <c r="H20" s="96"/>
       <c r="I20" s="21" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -4341,72 +4704,72 @@
       <c r="O20" s="10"/>
     </row>
     <row r="21" spans="1:15" s="15" customFormat="1" ht="28">
-      <c r="A21" s="81" t="s">
-        <v>206</v>
+      <c r="A21" s="84" t="s">
+        <v>66</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>174</v>
+        <v>183</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>113</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="G21" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="H21" s="72" t="s">
-        <v>170</v>
+        <v>110</v>
+      </c>
+      <c r="H21" s="77" t="s">
+        <v>109</v>
       </c>
       <c r="I21" s="41"/>
     </row>
     <row r="22" spans="1:15" s="24" customFormat="1" ht="28">
-      <c r="A22" s="82"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="12" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="79"/>
+        <v>94</v>
+      </c>
+      <c r="D22" s="97"/>
       <c r="E22" s="11" t="s">
-        <v>233</v>
+        <v>49</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="H22" s="79"/>
+        <v>93</v>
+      </c>
+      <c r="G22" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="97"/>
       <c r="I22" s="41"/>
     </row>
     <row r="23" spans="1:15" s="15" customFormat="1">
-      <c r="A23" s="82"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="17" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="D23" s="79"/>
+        <v>78</v>
+      </c>
+      <c r="D23" s="97"/>
       <c r="E23" s="11" t="s">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="79"/>
+        <v>136</v>
+      </c>
+      <c r="G23" s="86"/>
+      <c r="H23" s="97"/>
       <c r="I23" s="41" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="15" customFormat="1"/>
@@ -4416,15 +4779,61 @@
     <row r="28" spans="1:15" s="15" customFormat="1"/>
     <row r="29" spans="1:15" s="26" customFormat="1"/>
     <row r="30" spans="1:15" s="15" customFormat="1"/>
-    <row r="31" spans="1:15" s="27" customFormat="1"/>
-    <row r="32" spans="1:15" s="27" customFormat="1"/>
-    <row r="33" spans="1:9" s="27" customFormat="1"/>
-    <row r="34" spans="1:9" s="15" customFormat="1"/>
-    <row r="35" spans="1:9" s="15" customFormat="1"/>
+    <row r="31" spans="1:15" s="27" customFormat="1" ht="18">
+      <c r="A31" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+    </row>
+    <row r="32" spans="1:15" s="27" customFormat="1">
+      <c r="A32" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="108">
+        <v>1</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="27" customFormat="1">
+      <c r="A33" s="106"/>
+      <c r="B33" s="109">
+        <v>2</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="15" customFormat="1">
+      <c r="A34" s="106"/>
+      <c r="B34" s="109">
+        <v>3</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="15" customFormat="1">
+      <c r="A35" s="107"/>
+      <c r="B35" s="109">
+        <v>4</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="28"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="11">
+        <v>1</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -4433,9 +4842,13 @@
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="28"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="98">
+        <v>2</v>
+      </c>
+      <c r="C37" s="104" t="s">
+        <v>56</v>
+      </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -4443,13 +4856,69 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="17"/>
-    <row r="39" spans="1:9" ht="17"/>
-    <row r="40" spans="1:9" ht="17"/>
-    <row r="41" spans="1:9" ht="17"/>
+    <row r="38" spans="1:9">
+      <c r="A38" s="102"/>
+      <c r="B38" s="98">
+        <v>3</v>
+      </c>
+      <c r="C38" s="104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="102"/>
+      <c r="B39" s="98">
+        <v>4</v>
+      </c>
+      <c r="C39" s="104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="102"/>
+      <c r="B40" s="98">
+        <v>5</v>
+      </c>
+      <c r="C40" s="104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="102"/>
+      <c r="B41" s="98">
+        <v>6</v>
+      </c>
+      <c r="C41" s="104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="103"/>
+      <c r="B42" s="98">
+        <v>7</v>
+      </c>
+      <c r="C42" s="104" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <mergeCells count="23">
+  <mergeCells count="25">
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="D12:D13"/>
@@ -4459,20 +4928,6 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="G19:G20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -4487,10 +4942,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="14"/>
@@ -4507,7 +4962,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="23">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -4548,10 +5003,10 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="3"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
       <c r="F3" s="3" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -4596,31 +5051,31 @@
     </row>
     <row r="5" spans="1:23" s="9" customFormat="1" ht="18">
       <c r="A5" s="6" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -4638,29 +5093,29 @@
       <c r="W5" s="8"/>
     </row>
     <row r="6" spans="1:23" s="9" customFormat="1" ht="28">
-      <c r="A6" s="53" t="s">
-        <v>162</v>
+      <c r="A6" s="48" t="s">
+        <v>101</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>224</v>
+        <v>140</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>42</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="8"/>
@@ -4680,28 +5135,28 @@
     </row>
     <row r="7" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A7" s="11" t="s">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="D7" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="98" t="s">
-        <v>225</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>183</v>
-      </c>
       <c r="H7" s="34" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="10"/>
@@ -4720,22 +5175,22 @@
       <c r="W7" s="10"/>
     </row>
     <row r="8" spans="1:23" s="10" customFormat="1" ht="56">
-      <c r="A8" s="53" t="s">
-        <v>163</v>
+      <c r="A8" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="D8" s="21"/>
-      <c r="E8" s="55" t="s">
-        <v>226</v>
+      <c r="E8" s="50" t="s">
+        <v>12</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="21"/>
@@ -4743,25 +5198,25 @@
     <row r="9" spans="1:23" s="15" customFormat="1" ht="42">
       <c r="A9" s="40"/>
       <c r="B9" s="12" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="10"/>
@@ -4780,29 +5235,29 @@
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" s="15" customFormat="1">
-      <c r="A10" s="96" t="s">
-        <v>201</v>
+      <c r="A10" s="95" t="s">
+        <v>61</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="96" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>191</v>
-      </c>
       <c r="F10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="96" t="s">
-        <v>130</v>
+        <v>241</v>
+      </c>
+      <c r="G10" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="95" t="s">
+        <v>146</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="10"/>
@@ -4821,24 +5276,24 @@
       <c r="W10" s="10"/>
     </row>
     <row r="11" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A11" s="97"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="39" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="56" t="s">
-        <v>192</v>
+        <v>115</v>
+      </c>
+      <c r="D11" s="96"/>
+      <c r="E11" s="51" t="s">
+        <v>52</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
+        <v>136</v>
+      </c>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
       <c r="I11" s="21" t="s">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -4856,29 +5311,29 @@
       <c r="W11" s="16"/>
     </row>
     <row r="12" spans="1:23" s="18" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A12" s="81" t="s">
-        <v>213</v>
+      <c r="A12" s="84" t="s">
+        <v>73</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>194</v>
+        <v>232</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>6</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="81" t="s">
-        <v>133</v>
+        <v>241</v>
+      </c>
+      <c r="G12" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="84" t="s">
+        <v>149</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="16"/>
@@ -4897,24 +5352,24 @@
       <c r="W12" s="16"/>
     </row>
     <row r="13" spans="1:23" s="15" customFormat="1" ht="28">
-      <c r="A13" s="82"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="17" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="54" t="s">
-        <v>196</v>
+        <v>115</v>
+      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="49" t="s">
+        <v>33</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
+        <v>136</v>
+      </c>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="12" t="s">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -4932,29 +5387,29 @@
       <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:23" s="15" customFormat="1" ht="28">
-      <c r="A14" s="96" t="s">
-        <v>203</v>
+      <c r="A14" s="95" t="s">
+        <v>63</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+      <c r="D14" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>39</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="H14" s="96" t="s">
-        <v>168</v>
+        <v>106</v>
+      </c>
+      <c r="H14" s="95" t="s">
+        <v>107</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="10"/>
@@ -4965,26 +5420,26 @@
       <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:23" s="15" customFormat="1" ht="28">
-      <c r="A15" s="97"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="39" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="52" t="s">
-        <v>192</v>
+        <v>115</v>
+      </c>
+      <c r="D15" s="96"/>
+      <c r="E15" s="66" t="s">
+        <v>30</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="H15" s="97"/>
+        <v>106</v>
+      </c>
+      <c r="H15" s="96"/>
       <c r="I15" s="21" t="s">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -4994,29 +5449,29 @@
       <c r="O15" s="10"/>
     </row>
     <row r="16" spans="1:23" s="15" customFormat="1" ht="28">
-      <c r="A16" s="81" t="s">
-        <v>205</v>
+      <c r="A16" s="84" t="s">
+        <v>65</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>194</v>
+        <v>183</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>40</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="H16" s="72" t="s">
-        <v>121</v>
+        <v>104</v>
+      </c>
+      <c r="H16" s="77" t="s">
+        <v>137</v>
       </c>
       <c r="I16" s="41"/>
       <c r="J16" s="10"/>
@@ -5027,26 +5482,26 @@
       <c r="O16" s="10"/>
     </row>
     <row r="17" spans="1:15" s="15" customFormat="1" ht="28">
-      <c r="A17" s="82"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="17" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="54" t="s">
-        <v>196</v>
+        <v>115</v>
+      </c>
+      <c r="D17" s="85"/>
+      <c r="E17" s="49" t="s">
+        <v>33</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="79"/>
+        <v>104</v>
+      </c>
+      <c r="H17" s="97"/>
       <c r="I17" s="41" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -5056,29 +5511,29 @@
       <c r="O17" s="10"/>
     </row>
     <row r="18" spans="1:15" s="24" customFormat="1" ht="28">
-      <c r="A18" s="96" t="s">
-        <v>204</v>
+      <c r="A18" s="95" t="s">
+        <v>64</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="96" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+      <c r="D18" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>39</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="H18" s="96" t="s">
-        <v>172</v>
+        <v>108</v>
+      </c>
+      <c r="H18" s="95" t="s">
+        <v>111</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="20"/>
@@ -5089,24 +5544,24 @@
       <c r="O18" s="20"/>
     </row>
     <row r="19" spans="1:15" s="15" customFormat="1" ht="28">
-      <c r="A19" s="97"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="21" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="56" t="s">
-        <v>232</v>
+        <v>94</v>
+      </c>
+      <c r="D19" s="96"/>
+      <c r="E19" s="51" t="s">
+        <v>5</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="93" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="97"/>
+        <v>92</v>
+      </c>
+      <c r="G19" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="96"/>
       <c r="I19" s="44"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -5116,24 +5571,24 @@
       <c r="O19" s="10"/>
     </row>
     <row r="20" spans="1:15" s="15" customFormat="1">
-      <c r="A20" s="97"/>
+      <c r="A20" s="96"/>
       <c r="B20" s="39" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="52" t="s">
-        <v>192</v>
+        <v>77</v>
+      </c>
+      <c r="D20" s="96"/>
+      <c r="E20" s="66" t="s">
+        <v>30</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="95"/>
-      <c r="H20" s="97"/>
+        <v>136</v>
+      </c>
+      <c r="G20" s="81"/>
+      <c r="H20" s="96"/>
       <c r="I20" s="21" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -5143,115 +5598,219 @@
       <c r="O20" s="10"/>
     </row>
     <row r="21" spans="1:15" s="15" customFormat="1" ht="28">
-      <c r="A21" s="81" t="s">
-        <v>186</v>
+      <c r="A21" s="84" t="s">
+        <v>125</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>174</v>
+        <v>183</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>113</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="G21" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="H21" s="72" t="s">
-        <v>170</v>
+        <v>99</v>
+      </c>
+      <c r="H21" s="77" t="s">
+        <v>109</v>
       </c>
       <c r="I21" s="41"/>
     </row>
     <row r="22" spans="1:15" s="24" customFormat="1" ht="28">
-      <c r="A22" s="82"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="12" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="79"/>
+        <v>94</v>
+      </c>
+      <c r="D22" s="97"/>
       <c r="E22" s="11" t="s">
-        <v>233</v>
+        <v>5</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="H22" s="79"/>
+        <v>93</v>
+      </c>
+      <c r="G22" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="97"/>
       <c r="I22" s="41"/>
     </row>
     <row r="23" spans="1:15" s="15" customFormat="1">
-      <c r="A23" s="82"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="17" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="D23" s="79"/>
+        <v>78</v>
+      </c>
+      <c r="D23" s="97"/>
       <c r="E23" s="11" t="s">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="79"/>
+        <v>136</v>
+      </c>
+      <c r="G23" s="86"/>
+      <c r="H23" s="97"/>
       <c r="I23" s="41" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="15" customFormat="1"/>
     <row r="25" spans="1:15" s="24" customFormat="1"/>
     <row r="26" spans="1:15" s="15" customFormat="1"/>
     <row r="27" spans="1:15" s="15" customFormat="1"/>
-    <row r="28" spans="1:15" s="15" customFormat="1"/>
-    <row r="29" spans="1:15" s="26" customFormat="1"/>
-    <row r="30" spans="1:15" s="15" customFormat="1"/>
-    <row r="31" spans="1:15" s="27" customFormat="1"/>
-    <row r="32" spans="1:15" s="27" customFormat="1"/>
-    <row r="33" spans="1:9" s="27" customFormat="1"/>
-    <row r="34" spans="1:9" s="15" customFormat="1"/>
-    <row r="35" spans="1:9" s="15" customFormat="1"/>
+    <row r="28" spans="1:15" s="15" customFormat="1" ht="18">
+      <c r="A28" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+    </row>
+    <row r="29" spans="1:15" s="15" customFormat="1">
+      <c r="A29" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="108">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="27" customFormat="1">
+      <c r="A30" s="106"/>
+      <c r="B30" s="109">
+        <v>2</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="27" customFormat="1">
+      <c r="A31" s="106"/>
+      <c r="B31" s="109">
+        <v>3</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="27" customFormat="1">
+      <c r="A32" s="107"/>
+      <c r="B32" s="109">
+        <v>4</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="15" customFormat="1">
+      <c r="A33" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="11">
+        <v>1</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="102"/>
+      <c r="B34" s="98">
+        <v>2</v>
+      </c>
+      <c r="C34" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="102"/>
+      <c r="B35" s="98">
+        <v>3</v>
+      </c>
+      <c r="C35" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="28"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="4"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="98">
+        <v>4</v>
+      </c>
+      <c r="C36" s="104" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="28"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" ht="17"/>
-    <row r="39" spans="1:9" ht="17"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="98">
+        <v>5</v>
+      </c>
+      <c r="C37" s="104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="102"/>
+      <c r="B38" s="98">
+        <v>6</v>
+      </c>
+      <c r="C38" s="104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="103"/>
+      <c r="B39" s="98">
+        <v>7</v>
+      </c>
+      <c r="C39" s="104" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="40" spans="1:9" ht="17"/>
-    <row r="41" spans="1:9" ht="17"/>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <mergeCells count="23">
+  <mergeCells count="25">
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="D12:D13"/>
@@ -5261,23 +5820,10 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="G19:G20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
